--- a/PLANTILLAS APLICATIVO/AES.xlsx
+++ b/PLANTILLAS APLICATIVO/AES.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F13E750-11D1-4CC5-B6B2-0EF0A0984F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Proveedor" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Inversiones" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Ambiental" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Empleo" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Caracterizacion biotica" sheetId="5" r:id="rId8"/>
+    <sheet name="Proveedor" sheetId="1" r:id="rId1"/>
+    <sheet name="Inversiones" sheetId="2" r:id="rId2"/>
+    <sheet name="Ambiental" sheetId="3" r:id="rId3"/>
+    <sheet name="Empleo" sheetId="4" r:id="rId4"/>
+    <sheet name="Caracterizacion biotica" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Caracterizacion biotica'!$A$1:$J$3</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjqzgEjaxTSKvj5sgsH1W2U7f3oRg=="/>
     </ext>
@@ -20,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="138">
   <si>
     <t>AÑO</t>
   </si>
@@ -53,9 +71,6 @@
   </si>
   <si>
     <t>Residuos Peligrosos transportados (kg)</t>
-  </si>
-  <si>
-    <t>Kg/Año</t>
   </si>
   <si>
     <t>Central Hidroeléctrica de Chivor</t>
@@ -153,26 +168,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Energía eléctrica</t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> generada</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> para consumo interno (estaciones telemétricas, desviaciones y campamento) (kWh)</t>
     </r>
@@ -180,26 +195,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Energía eléctrica </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <i/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>comprada</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> para consumo interno (estaciones telemétricas, desviaciones y campamento) (kWh)</t>
     </r>
@@ -237,26 +252,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Emisiones de Toneladas de CO</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <vertAlign val="subscript"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> equivalente a causa de estos consumos, calculadas a través de factores de emisión:</t>
     </r>
@@ -264,26 +279,26 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>Emisiones de Toneladas de CO</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
-        <vertAlign val="subscript"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve"> equivalente a causa de estos consumos, calculadas a través de factores de emisión:</t>
     </r>
@@ -310,9 +325,6 @@
     <t>HFC-410A (R-410A) (kg)</t>
   </si>
   <si>
-    <t>EMPLEADOS</t>
-  </si>
-  <si>
     <t>TIPO DE CONTRATO</t>
   </si>
   <si>
@@ -322,55 +334,320 @@
     <t>EDAD</t>
   </si>
   <si>
-    <t>NIVEL DE FORMACION</t>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AÑO </t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>LUGAR DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>ULTIMO NIVEL DE FORMACION</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>COORDENADA</t>
+  </si>
+  <si>
+    <t>PUNTO DE MUESTREO</t>
+  </si>
+  <si>
+    <t>RESULTADO DE MEDICION</t>
+  </si>
+  <si>
+    <t>UNIDAD DE  MEDIDA</t>
+  </si>
+  <si>
+    <t>AÑO MONITOREO</t>
+  </si>
+  <si>
+    <t>PARAMETROS DE CONTROL</t>
+  </si>
+  <si>
+    <t>BOGOTA</t>
+  </si>
+  <si>
+    <t>SANTA MARIA</t>
+  </si>
+  <si>
+    <t>CHIVOR</t>
+  </si>
+  <si>
+    <t>BOYACÁ</t>
+  </si>
+  <si>
+    <t>MACANAL</t>
+  </si>
+  <si>
+    <t>CTeI</t>
+  </si>
+  <si>
+    <t>VIAS</t>
+  </si>
+  <si>
+    <t>TURISMO</t>
+  </si>
+  <si>
+    <t>AGRICOLA - CAFÉ</t>
+  </si>
+  <si>
+    <t>AGRICOLA -  CACAO</t>
+  </si>
+  <si>
+    <t>Kg/Año 2019</t>
+  </si>
+  <si>
+    <t>Kg/Año 2020</t>
+  </si>
+  <si>
+    <t>Kg/Año 2021</t>
+  </si>
+  <si>
+    <t>Kg/Año 2022</t>
+  </si>
+  <si>
+    <t>TOTAL AÑO</t>
+  </si>
+  <si>
+    <t>LUIS CASAS</t>
+  </si>
+  <si>
+    <t>INDEFINIDO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>ESPECIALIZACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALBERTO HERANDNEZ</t>
+  </si>
+  <si>
+    <t>SECUNDARIA</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>SOGAMOSO</t>
+  </si>
+  <si>
+    <t>MEDELLIN</t>
+  </si>
+  <si>
+    <t>LAURA CASAS</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>TERMINO FIJO</t>
+  </si>
+  <si>
+    <t>LABOR DETERMINADA</t>
+  </si>
+  <si>
+    <t>CRISTINA AGUILAR</t>
+  </si>
+  <si>
+    <t>SOFIA IGUARIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAURA VIDA </t>
+  </si>
+  <si>
+    <t>MILTON TORRES</t>
+  </si>
+  <si>
+    <t>JOSE SEPULVEDA</t>
+  </si>
+  <si>
+    <t>LUIS BUSTOS</t>
+  </si>
+  <si>
+    <t>SILVIA DURAN</t>
+  </si>
+  <si>
+    <t>VIVIANA MARTINEZ</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MAESTRIA</t>
+  </si>
+  <si>
+    <t>PROFESIONAL</t>
+  </si>
+  <si>
+    <t>TECNICO</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>HgL</t>
+  </si>
+  <si>
+    <t>21.48  25.48</t>
+  </si>
+  <si>
+    <t>26.58  65.85</t>
+  </si>
+  <si>
+    <t>RAIZAL</t>
+  </si>
+  <si>
+    <t>TURBIDEZ</t>
+  </si>
+  <si>
+    <t>Mgk</t>
+  </si>
+  <si>
+    <t>58.69  58.65</t>
+  </si>
+  <si>
+    <t>PALO BAJTO</t>
+  </si>
+  <si>
+    <t>MONTAÑA 2</t>
+  </si>
+  <si>
+    <t>TEMPERATURA</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>AMARILLO</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>ºc</t>
+  </si>
+  <si>
+    <t>ºC</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font/>
-    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -390,9 +667,21 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
-    <border/>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -406,6 +695,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -417,6 +707,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -425,19 +717,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -447,128 +745,274 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -758,28 +1202,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="17.0"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
-    <col customWidth="1" min="4" max="4" width="17.86"/>
-    <col customWidth="1" min="5" max="5" width="22.14"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="9" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,78 +1244,90 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1854,32 +2315,34 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="10.71"/>
-    <col customWidth="1" min="4" max="4" width="17.71"/>
-    <col customWidth="1" min="5" max="5" width="24.29"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="16" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1895,76 +2358,191 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="30">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="30">
+        <v>750000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="30">
+        <v>85000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="30">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="30">
+        <v>92560000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="30">
+        <v>250000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="30">
+        <v>958625120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="30">
+        <v>56956250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="30">
+        <v>65326980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="30">
+        <v>23598540</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2947,962 +3525,1589 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E979"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B94" sqref="B94:E96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.14"/>
-    <col customWidth="1" min="2" max="2" width="12.71"/>
-    <col customWidth="1" min="3" max="26" width="10.71"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="53"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="32">
+        <v>5200</v>
+      </c>
+      <c r="C6" s="32">
+        <v>5250</v>
+      </c>
+      <c r="D6" s="33">
+        <v>4800</v>
+      </c>
+      <c r="E6" s="33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="32">
+        <v>850</v>
+      </c>
+      <c r="C7" s="32">
+        <v>750</v>
+      </c>
+      <c r="D7" s="33">
+        <v>695</v>
+      </c>
+      <c r="E7" s="33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="32">
+        <v>520</v>
+      </c>
+      <c r="C8" s="32">
+        <v>360</v>
+      </c>
+      <c r="D8" s="33">
+        <v>581</v>
+      </c>
+      <c r="E8" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="34">
+        <f>SUM(B6:B8)</f>
+        <v>6570</v>
+      </c>
+      <c r="C9" s="34">
+        <f t="shared" ref="C9:E9" si="0">SUM(C6:C8)</f>
+        <v>6360</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="0"/>
+        <v>6076</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="0"/>
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="32">
+        <v>582</v>
+      </c>
+      <c r="C11" s="32">
+        <v>5694</v>
+      </c>
+      <c r="D11" s="33">
+        <v>489</v>
+      </c>
+      <c r="E11" s="33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="32">
+        <v>350</v>
+      </c>
+      <c r="C12" s="32">
+        <v>325</v>
+      </c>
+      <c r="D12" s="33">
+        <v>365</v>
+      </c>
+      <c r="E12" s="33">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="32">
+        <v>125</v>
+      </c>
+      <c r="C13" s="32">
+        <v>198</v>
+      </c>
+      <c r="D13" s="33">
+        <v>250</v>
+      </c>
+      <c r="E13" s="33">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="B14" s="34">
+        <f>SUM(B11:B13)</f>
+        <v>1057</v>
+      </c>
+      <c r="C14" s="34">
+        <f t="shared" ref="C14:E14" si="1">SUM(C11:C13)</f>
+        <v>6217</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" si="1"/>
+        <v>1104</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="53"/>
+      <c r="B16" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="34">
+        <v>58</v>
+      </c>
+      <c r="C18" s="34">
+        <v>52</v>
+      </c>
+      <c r="D18" s="37">
+        <v>50</v>
+      </c>
+      <c r="E18" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="34">
+        <v>32</v>
+      </c>
+      <c r="C19" s="34">
+        <v>35</v>
+      </c>
+      <c r="D19" s="37">
+        <v>30</v>
+      </c>
+      <c r="E19" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="34">
+        <v>8</v>
+      </c>
+      <c r="C20" s="34">
+        <v>7</v>
+      </c>
+      <c r="D20" s="37">
+        <v>7</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="34">
+        <f>SUM(B18:B20)</f>
+        <v>98</v>
+      </c>
+      <c r="C21" s="34">
+        <f t="shared" ref="C21:E21" si="2">SUM(C18:C20)</f>
+        <v>94</v>
+      </c>
+      <c r="D21" s="34">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="E21" s="34">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="34">
+        <v>38</v>
+      </c>
+      <c r="C23" s="34">
+        <v>32</v>
+      </c>
+      <c r="D23" s="37">
+        <v>30</v>
+      </c>
+      <c r="E23" s="37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="34">
+        <v>12</v>
+      </c>
+      <c r="C24" s="34">
+        <v>15</v>
+      </c>
+      <c r="D24" s="37">
+        <v>10</v>
+      </c>
+      <c r="E24" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="34">
+        <v>18</v>
+      </c>
+      <c r="C25" s="34">
+        <v>15</v>
+      </c>
+      <c r="D25" s="37">
+        <v>12</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="34">
+        <f>SUM(B23:B25)</f>
+        <v>68</v>
+      </c>
+      <c r="C26" s="34">
+        <f t="shared" ref="C26" si="3">SUM(C23:C25)</f>
+        <v>62</v>
+      </c>
+      <c r="D26" s="34">
+        <f t="shared" ref="D26" si="4">SUM(D23:D25)</f>
+        <v>52</v>
+      </c>
+      <c r="E26" s="34">
+        <f t="shared" ref="E26" si="5">SUM(E23:E25)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21" customHeight="1">
+      <c r="A27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E28" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="35">
+        <v>520</v>
+      </c>
+      <c r="C29" s="35">
+        <v>358</v>
+      </c>
+      <c r="D29" s="36">
+        <v>589</v>
+      </c>
+      <c r="E29" s="36">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="35">
+        <v>890</v>
+      </c>
+      <c r="C30" s="35">
+        <v>590</v>
+      </c>
+      <c r="D30" s="36">
+        <v>620</v>
+      </c>
+      <c r="E30" s="36">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="35">
+        <v>85</v>
+      </c>
+      <c r="C31" s="35">
+        <v>105</v>
+      </c>
+      <c r="D31" s="36">
+        <v>154</v>
+      </c>
+      <c r="E31" s="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="35">
+        <v>15</v>
+      </c>
+      <c r="C32" s="35">
+        <v>10</v>
+      </c>
+      <c r="D32" s="36">
+        <v>41</v>
+      </c>
+      <c r="E32" s="36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="35">
+        <f>SUM(B28:B32)</f>
+        <v>3529</v>
+      </c>
+      <c r="C33" s="35">
+        <f t="shared" ref="C33:E33" si="6">SUM(C28:C32)</f>
+        <v>3083</v>
+      </c>
+      <c r="D33" s="35">
+        <f t="shared" si="6"/>
+        <v>3425</v>
+      </c>
+      <c r="E33" s="35">
+        <f t="shared" si="6"/>
+        <v>2482.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="35">
+        <v>320</v>
+      </c>
+      <c r="C35" s="35">
+        <v>158</v>
+      </c>
+      <c r="D35" s="36">
+        <v>259</v>
+      </c>
+      <c r="E35" s="36">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="35">
+        <v>890</v>
+      </c>
+      <c r="C36" s="35">
+        <v>590</v>
+      </c>
+      <c r="D36" s="36">
+        <v>620</v>
+      </c>
+      <c r="E36" s="36">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="35">
+        <v>85</v>
+      </c>
+      <c r="C37" s="35">
+        <v>105</v>
+      </c>
+      <c r="D37" s="36">
+        <v>154</v>
+      </c>
+      <c r="E37" s="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="35">
+        <v>15</v>
+      </c>
+      <c r="C38" s="35">
+        <v>10</v>
+      </c>
+      <c r="D38" s="36">
+        <v>41</v>
+      </c>
+      <c r="E38" s="36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="35">
+        <f>SUM(B35:B38)</f>
+        <v>1310</v>
+      </c>
+      <c r="C39" s="35">
+        <f t="shared" ref="C39:E39" si="7">SUM(C35:C38)</f>
+        <v>863</v>
+      </c>
+      <c r="D39" s="35">
+        <f t="shared" si="7"/>
+        <v>1074</v>
+      </c>
+      <c r="E39" s="35">
+        <f t="shared" si="7"/>
+        <v>350.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C41" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E41" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="34">
+        <v>52</v>
+      </c>
+      <c r="C42" s="34">
+        <v>75</v>
+      </c>
+      <c r="D42" s="37">
+        <v>82</v>
+      </c>
+      <c r="E42" s="37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="34">
+        <v>69</v>
+      </c>
+      <c r="C43" s="34">
+        <v>68</v>
+      </c>
+      <c r="D43" s="37">
+        <v>78</v>
+      </c>
+      <c r="E43" s="37">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="34">
+        <v>68</v>
+      </c>
+      <c r="C44" s="34">
+        <v>84</v>
+      </c>
+      <c r="D44" s="37">
+        <v>98</v>
+      </c>
+      <c r="E44" s="37">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="B45" s="34">
+        <v>25</v>
+      </c>
+      <c r="C45" s="34">
+        <v>35</v>
+      </c>
+      <c r="D45" s="37">
+        <v>45</v>
+      </c>
+      <c r="E45" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="34">
+        <v>12</v>
+      </c>
+      <c r="C46" s="34">
+        <v>15</v>
+      </c>
+      <c r="D46" s="37">
+        <v>18</v>
+      </c>
+      <c r="E46" s="37">
         <v>14</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="34">
+        <v>5</v>
+      </c>
+      <c r="C47" s="34">
+        <v>7</v>
+      </c>
+      <c r="D47" s="37">
+        <v>10</v>
+      </c>
+      <c r="E47" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="B48" s="34">
+        <f>SUM(B42:B47)</f>
+        <v>231</v>
+      </c>
+      <c r="C48" s="34">
+        <f t="shared" ref="C48:E48" si="8">SUM(C42:C47)</f>
+        <v>284</v>
+      </c>
+      <c r="D48" s="34">
+        <f t="shared" si="8"/>
+        <v>331</v>
+      </c>
+      <c r="E48" s="34">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="34">
+        <v>42</v>
+      </c>
+      <c r="C50" s="34">
+        <v>65</v>
+      </c>
+      <c r="D50" s="37">
+        <v>62</v>
+      </c>
+      <c r="E50" s="37">
         <v>12</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="13" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="34">
+        <v>59</v>
+      </c>
+      <c r="C51" s="34">
+        <v>48</v>
+      </c>
+      <c r="D51" s="37">
+        <v>68</v>
+      </c>
+      <c r="E51" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="34">
+        <v>58</v>
+      </c>
+      <c r="C52" s="34">
+        <v>64</v>
+      </c>
+      <c r="D52" s="37">
+        <v>68</v>
+      </c>
+      <c r="E52" s="37">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="34">
+        <v>15</v>
+      </c>
+      <c r="C53" s="34">
+        <v>15</v>
+      </c>
+      <c r="D53" s="37">
+        <v>25</v>
+      </c>
+      <c r="E53" s="37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="34">
+        <v>2</v>
+      </c>
+      <c r="C54" s="34">
+        <v>5</v>
+      </c>
+      <c r="D54" s="37">
+        <v>8</v>
+      </c>
+      <c r="E54" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+    </row>
+    <row r="57" spans="1:5" ht="30.75" customHeight="1">
+      <c r="A57" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A58" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="12">
+        <v>56</v>
+      </c>
+      <c r="C58" s="12">
+        <v>150</v>
+      </c>
+      <c r="D58" s="12">
+        <v>158</v>
+      </c>
+      <c r="E58" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="35">
+        <v>52</v>
+      </c>
+      <c r="C60" s="35">
+        <v>15</v>
+      </c>
+      <c r="D60" s="36">
+        <v>159</v>
+      </c>
+      <c r="E60" s="36">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="35">
+        <v>45</v>
+      </c>
+      <c r="C61" s="35">
+        <v>48</v>
+      </c>
+      <c r="D61" s="36">
+        <v>435</v>
+      </c>
+      <c r="E61" s="36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="35">
+        <v>52</v>
+      </c>
+      <c r="C62" s="35">
+        <v>85</v>
+      </c>
+      <c r="D62" s="36">
+        <v>487</v>
+      </c>
+      <c r="E62" s="36">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="35">
+        <v>5890</v>
+      </c>
+      <c r="C63" s="35">
+        <v>1589</v>
+      </c>
+      <c r="D63" s="36">
+        <v>1578</v>
+      </c>
+      <c r="E63" s="36">
+        <v>3598</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A65" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="38">
+        <v>2589</v>
+      </c>
+      <c r="C65" s="38">
+        <v>3598</v>
+      </c>
+      <c r="D65" s="38">
+        <v>5896</v>
+      </c>
+      <c r="E65" s="38">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A66" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="38">
+        <v>2689</v>
+      </c>
+      <c r="C66" s="38">
+        <v>6598</v>
+      </c>
+      <c r="D66" s="39">
+        <v>3657</v>
+      </c>
+      <c r="E66" s="39">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A67" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="35">
+        <v>5200</v>
+      </c>
+      <c r="C69" s="35">
+        <v>5250</v>
+      </c>
+      <c r="D69" s="36">
+        <v>6895</v>
+      </c>
+      <c r="E69" s="36">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="35">
+        <v>6890</v>
+      </c>
+      <c r="C70" s="35">
+        <v>7821</v>
+      </c>
+      <c r="D70" s="36">
+        <v>5621</v>
+      </c>
+      <c r="E70" s="36">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="35">
+        <v>69874</v>
+      </c>
+      <c r="C71" s="35">
+        <v>56987</v>
+      </c>
+      <c r="D71" s="36">
+        <v>65231</v>
+      </c>
+      <c r="E71" s="36">
+        <v>45281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A73" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="35">
+        <v>3200</v>
+      </c>
+      <c r="C73" s="35">
+        <v>4250</v>
+      </c>
+      <c r="D73" s="36">
+        <v>5987</v>
+      </c>
+      <c r="E73" s="36">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="35">
+        <v>3890</v>
+      </c>
+      <c r="C74" s="35">
+        <v>4872</v>
+      </c>
+      <c r="D74" s="36">
+        <v>6598</v>
+      </c>
+      <c r="E74" s="36">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="35">
+        <v>65987</v>
+      </c>
+      <c r="C75" s="35">
+        <v>25984</v>
+      </c>
+      <c r="D75" s="36">
+        <v>26591</v>
+      </c>
+      <c r="E75" s="36">
+        <v>25621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="35">
+        <f>SUM(B69:B75)</f>
+        <v>155041</v>
+      </c>
+      <c r="C76" s="35">
+        <f t="shared" ref="C76:E76" si="9">SUM(C69:C75)</f>
+        <v>105164</v>
+      </c>
+      <c r="D76" s="35">
+        <f t="shared" si="9"/>
+        <v>116923</v>
+      </c>
+      <c r="E76" s="35">
+        <f t="shared" si="9"/>
+        <v>86128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A77" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A78" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="42">
+        <v>6985210</v>
+      </c>
+      <c r="C78" s="42">
+        <v>2659840</v>
+      </c>
+      <c r="D78" s="43">
+        <v>3659840</v>
+      </c>
+      <c r="E78" s="43">
+        <v>3695210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A79" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="42">
+        <v>4251</v>
+      </c>
+      <c r="C79" s="42">
+        <v>4261</v>
+      </c>
+      <c r="D79" s="43">
+        <v>3265</v>
+      </c>
+      <c r="E79" s="43">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A80" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A81" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D81" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E81" s="12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A82" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="35">
+        <v>5200</v>
+      </c>
+      <c r="C82" s="35">
+        <v>5250</v>
+      </c>
+      <c r="D82" s="36">
+        <v>6895</v>
+      </c>
+      <c r="E82" s="36">
+        <v>5682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A83" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="35">
+        <v>6890</v>
+      </c>
+      <c r="C83" s="35">
+        <v>7821</v>
+      </c>
+      <c r="D83" s="36">
+        <v>5621</v>
+      </c>
+      <c r="E83" s="36">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A84" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="35">
+        <v>2586</v>
+      </c>
+      <c r="C84" s="35">
+        <v>1254</v>
+      </c>
+      <c r="D84" s="36">
+        <v>1364</v>
+      </c>
+      <c r="E84" s="36">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A85" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A86" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="35">
+        <v>3200</v>
+      </c>
+      <c r="C86" s="35">
+        <v>4250</v>
+      </c>
+      <c r="D86" s="36">
+        <v>5987</v>
+      </c>
+      <c r="E86" s="36">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A87" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="35">
+        <v>3890</v>
+      </c>
+      <c r="C87" s="35">
+        <v>4872</v>
+      </c>
+      <c r="D87" s="36">
+        <v>6598</v>
+      </c>
+      <c r="E87" s="36">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A88" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="35">
+        <v>65987</v>
+      </c>
+      <c r="C88" s="35">
+        <v>25984</v>
+      </c>
+      <c r="D88" s="36">
+        <v>26591</v>
+      </c>
+      <c r="E88" s="36">
+        <v>25621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B89" s="35">
+        <f>SUM(B82:B88)</f>
+        <v>87753</v>
+      </c>
+      <c r="C89" s="35">
+        <f t="shared" ref="C89" si="10">SUM(C82:C88)</f>
+        <v>49431</v>
+      </c>
+      <c r="D89" s="35">
+        <f t="shared" ref="D89" si="11">SUM(D82:D88)</f>
+        <v>53056</v>
+      </c>
+      <c r="E89" s="35">
+        <f t="shared" ref="E89" si="12">SUM(E82:E88)</f>
+        <v>48429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A90" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A91" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B91" s="41">
+        <v>125962</v>
+      </c>
+      <c r="C91" s="41">
+        <v>125487</v>
+      </c>
+      <c r="D91" s="41">
+        <v>52014</v>
+      </c>
+      <c r="E91" s="41">
+        <v>25361</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A92" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="13">
+        <v>2598</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1248</v>
+      </c>
+      <c r="D92" s="13">
+        <v>3569</v>
+      </c>
+      <c r="E92" s="13">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="24.75" customHeight="1">
+      <c r="A93" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A94" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="37">
+        <v>80</v>
+      </c>
+      <c r="C94" s="37">
+        <v>90</v>
+      </c>
+      <c r="D94" s="37">
+        <v>58</v>
+      </c>
+      <c r="E94" s="37">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A95" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="37">
+        <v>40</v>
+      </c>
+      <c r="C95" s="37">
+        <v>15</v>
+      </c>
+      <c r="D95" s="37">
+        <v>64</v>
+      </c>
+      <c r="E95" s="37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A96" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" s="37">
         <v>20</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" ht="21.0" customHeight="1">
-      <c r="A26" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="13" t="s">
+      <c r="C96" s="37">
         <v>26</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="13" t="s">
+      <c r="D96" s="37">
         <v>13</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="13" t="s">
+      <c r="E96" s="37">
         <v>58</v>
       </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1"/>
+    </row>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -4785,58 +5990,316 @@
     <row r="976" ht="15.75" customHeight="1"/>
     <row r="977" ht="15.75" customHeight="1"/>
     <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="21.71"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="7" width="21.29"/>
-    <col customWidth="1" min="8" max="26" width="10.71"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="25" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B6" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>31</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
+      <c r="F8" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>42</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>38</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5820,26 +7283,241 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="27" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2">
+        <v>5.6</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="46">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="46">
+        <v>28</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
+      <c r="A5" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B5" s="44">
+        <v>4</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="48">
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="23">
+        <v>6</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="44">
+        <v>7</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="47">
+        <v>5.8</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
+      <c r="A9" s="23">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="23">
+        <v>8</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="47">
+        <v>25</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -6821,9 +8499,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PLANTILLAS APLICATIVO/AES.xlsx
+++ b/PLANTILLAS APLICATIVO/AES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEC1148-0A64-4DB4-99B5-D21E1AD06EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DFA72E-977F-44BC-B659-54579E3E64C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="165">
   <si>
     <t>AÑO</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>SERVICIOS DE TOPOGRAFÍA</t>
+  </si>
+  <si>
+    <t>SANTA MARÍA</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1159,19 +1162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1198,17 +1188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1219,6 +1198,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1226,7 +1244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1279,124 +1297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1433,35 +1334,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,9 +1382,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1512,11 +1404,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1570,6 +1459,162 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4284,1775 +4329,1819 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBFE39-3388-48C4-A903-01288C873081}">
-  <dimension ref="A1:CN978"/>
+  <dimension ref="A1:CP978"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="BH6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BP5" sqref="BP5"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="101"/>
-    <col min="2" max="2" width="23.33203125" style="101" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="101" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="101" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="101" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="101" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="101" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="101" customWidth="1"/>
-    <col min="10" max="17" width="10.6640625" style="101" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="101" customWidth="1"/>
-    <col min="19" max="22" width="10.6640625" style="101" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" style="101" customWidth="1"/>
-    <col min="24" max="26" width="10.6640625" style="101" customWidth="1"/>
-    <col min="27" max="41" width="14.44140625" style="101"/>
-    <col min="42" max="42" width="16.77734375" style="101" customWidth="1"/>
-    <col min="43" max="45" width="14.44140625" style="101"/>
-    <col min="46" max="46" width="17.33203125" style="101" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="22.5546875" style="101" bestFit="1" customWidth="1"/>
-    <col min="49" max="59" width="14.44140625" style="101"/>
-    <col min="60" max="60" width="22.21875" style="101" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="14.44140625" style="101"/>
-    <col min="63" max="64" width="22.21875" style="101" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="14.44140625" style="101"/>
+    <col min="1" max="1" width="14.44140625" style="60"/>
+    <col min="2" max="2" width="15.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="60" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="60" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="60" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="60" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="60" customWidth="1"/>
+    <col min="12" max="19" width="10.6640625" style="60" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="60" customWidth="1"/>
+    <col min="21" max="24" width="10.6640625" style="60" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" style="60" customWidth="1"/>
+    <col min="26" max="28" width="10.6640625" style="60" customWidth="1"/>
+    <col min="29" max="43" width="14.44140625" style="60"/>
+    <col min="44" max="44" width="16.77734375" style="60" customWidth="1"/>
+    <col min="45" max="47" width="14.44140625" style="60"/>
+    <col min="48" max="48" width="17.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="22.5546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="51" max="61" width="14.44140625" style="60"/>
+    <col min="62" max="62" width="22.21875" style="60" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="14.44140625" style="60"/>
+    <col min="65" max="66" width="22.21875" style="60" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="14.44140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="37" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:94" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34" t="s">
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="34" t="s">
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="30" t="s">
+      <c r="AE1" s="119"/>
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="119"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="119"/>
+      <c r="AM1" s="119"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="116" t="s">
         <v>32</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AS1" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="31" t="s">
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="91"/>
+      <c r="AW1" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="31" t="s">
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="31" t="s">
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+      <c r="BC1" s="90"/>
+      <c r="BD1" s="90"/>
+      <c r="BE1" s="91"/>
+      <c r="BF1" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="31" t="s">
+      <c r="BG1" s="91"/>
+      <c r="BH1" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="33"/>
-      <c r="BM1" s="31" t="s">
+      <c r="BI1" s="90"/>
+      <c r="BJ1" s="90"/>
+      <c r="BK1" s="90"/>
+      <c r="BL1" s="90"/>
+      <c r="BM1" s="90"/>
+      <c r="BN1" s="91"/>
+      <c r="BO1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="31" t="s">
+      <c r="BP1" s="91"/>
+      <c r="BQ1" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="33"/>
-    </row>
-    <row r="2" spans="1:92" s="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="41"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="41"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="41"/>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="41"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="41"/>
-    </row>
-    <row r="3" spans="1:92" s="37" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="50"/>
-      <c r="AP3" s="38"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="40"/>
-      <c r="AS3" s="40"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="39"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="46"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="39"/>
-      <c r="BP3" s="40"/>
-      <c r="BQ3" s="41"/>
-    </row>
-    <row r="4" spans="1:92" s="37" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="51" t="s">
+      <c r="BR1" s="90"/>
+      <c r="BS1" s="91"/>
+    </row>
+    <row r="2" spans="1:94" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="92"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="122"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="122"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="123"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="94"/>
+      <c r="AY2" s="92"/>
+      <c r="AZ2" s="93"/>
+      <c r="BA2" s="93"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="93"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="92"/>
+      <c r="BG2" s="94"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="93"/>
+      <c r="BJ2" s="93"/>
+      <c r="BK2" s="93"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="93"/>
+      <c r="BN2" s="94"/>
+      <c r="BO2" s="92"/>
+      <c r="BP2" s="94"/>
+      <c r="BQ2" s="92"/>
+      <c r="BR2" s="93"/>
+      <c r="BS2" s="94"/>
+    </row>
+    <row r="3" spans="1:94" s="30" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="92"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="125"/>
+      <c r="X3" s="125"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="124"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="125"/>
+      <c r="AG3" s="125"/>
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="125"/>
+      <c r="AK3" s="125"/>
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="125"/>
+      <c r="AO3" s="125"/>
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="117"/>
+      <c r="AS3" s="92"/>
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="92"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="95"/>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="97"/>
+      <c r="BF3" s="92"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="95"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+      <c r="BM3" s="96"/>
+      <c r="BN3" s="97"/>
+      <c r="BO3" s="92"/>
+      <c r="BP3" s="94"/>
+      <c r="BQ3" s="92"/>
+      <c r="BR3" s="93"/>
+      <c r="BS3" s="94"/>
+    </row>
+    <row r="4" spans="1:94" s="30" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52" t="s">
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="54" t="s">
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="54" t="s">
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="57" t="s">
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="54" t="s">
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="54" t="s">
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102"/>
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="103"/>
+      <c r="AK4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="61" t="s">
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="95"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="AX4" s="62"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="54" t="s">
+      <c r="AZ4" s="108"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="45"/>
-      <c r="BE4" s="47"/>
-      <c r="BF4" s="64" t="s">
+      <c r="BC4" s="102"/>
+      <c r="BD4" s="102"/>
+      <c r="BE4" s="103"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="BG4" s="65"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="67" t="s">
+      <c r="BI4" s="111"/>
+      <c r="BJ4" s="112"/>
+      <c r="BK4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="BJ4" s="68"/>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="45"/>
-      <c r="BN4" s="47"/>
-      <c r="BO4" s="45"/>
-      <c r="BP4" s="46"/>
-      <c r="BQ4" s="47"/>
-    </row>
-    <row r="5" spans="1:92" s="37" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="70" t="s">
+      <c r="BL4" s="114"/>
+      <c r="BM4" s="114"/>
+      <c r="BN4" s="115"/>
+      <c r="BO4" s="95"/>
+      <c r="BP4" s="97"/>
+      <c r="BQ4" s="95"/>
+      <c r="BR4" s="96"/>
+      <c r="BS4" s="97"/>
+    </row>
+    <row r="5" spans="1:94" s="30" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="92"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="E5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="F5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="G5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="H5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="I5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="J5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="K5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="L5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="71" t="s">
+      <c r="M5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="N5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="O5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="P5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="71" t="s">
+      <c r="Q5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="71" t="s">
+      <c r="R5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="72" t="s">
+      <c r="S5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="T5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="71" t="s">
+      <c r="U5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="71" t="s">
+      <c r="V5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="71" t="s">
+      <c r="W5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="72" t="s">
+      <c r="X5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="73" t="s">
+      <c r="Y5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="71" t="s">
+      <c r="Z5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="71" t="s">
+      <c r="AA5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="71" t="s">
+      <c r="AB5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="72" t="s">
+      <c r="AC5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AB5" s="73" t="s">
+      <c r="AD5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="71" t="s">
+      <c r="AE5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="71" t="s">
+      <c r="AF5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="71" t="s">
+      <c r="AG5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AF5" s="71" t="s">
+      <c r="AH5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="71" t="s">
+      <c r="AI5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AH5" s="72" t="s">
+      <c r="AJ5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AI5" s="73" t="s">
+      <c r="AK5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="AJ5" s="71" t="s">
+      <c r="AL5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AK5" s="71" t="s">
+      <c r="AM5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AL5" s="71" t="s">
+      <c r="AN5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AM5" s="71" t="s">
+      <c r="AO5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AN5" s="71" t="s">
+      <c r="AP5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="AO5" s="72" t="s">
+      <c r="AQ5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="AP5" s="74" t="s">
+      <c r="AR5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="AQ5" s="73" t="s">
+      <c r="AS5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AR5" s="71" t="s">
+      <c r="AT5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AS5" s="71" t="s">
+      <c r="AU5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AT5" s="75" t="s">
+      <c r="AV5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="AU5" s="73" t="s">
+      <c r="AW5" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AV5" s="75" t="s">
+      <c r="AX5" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AW5" s="73" t="s">
+      <c r="AY5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AX5" s="71" t="s">
+      <c r="AZ5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AY5" s="75" t="s">
+      <c r="BA5" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="AZ5" s="73" t="s">
+      <c r="BB5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BA5" s="71" t="s">
+      <c r="BC5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BB5" s="71" t="s">
+      <c r="BD5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="BC5" s="72" t="s">
+      <c r="BE5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="BD5" s="76" t="s">
+      <c r="BF5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="BE5" s="77" t="s">
+      <c r="BG5" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="BF5" s="73" t="s">
+      <c r="BH5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BG5" s="71" t="s">
+      <c r="BI5" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BH5" s="71" t="s">
+      <c r="BJ5" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="BI5" s="78" t="s">
+      <c r="BK5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BJ5" s="79" t="s">
+      <c r="BL5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="BK5" s="80" t="s">
+      <c r="BM5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="BL5" s="81" t="s">
+      <c r="BN5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="BM5" s="70" t="s">
+      <c r="BO5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="BN5" s="75" t="s">
+      <c r="BP5" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="BO5" s="73" t="s">
+      <c r="BQ5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="BP5" s="71" t="s">
+      <c r="BR5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="BQ5" s="75" t="s">
+      <c r="BS5" s="36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:92" s="37" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="82">
+    <row r="6" spans="1:94" s="30" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="135">
         <v>2019</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="130">
         <v>5200</v>
       </c>
-      <c r="C6" s="83">
+      <c r="E6" s="43">
         <v>850</v>
       </c>
-      <c r="D6" s="83">
+      <c r="F6" s="43">
         <v>520</v>
       </c>
-      <c r="E6" s="83">
-        <f>SUM(B6:D6)</f>
+      <c r="G6" s="43">
+        <f>SUM(D6:F6)</f>
         <v>6570</v>
       </c>
-      <c r="F6" s="83">
+      <c r="H6" s="43">
         <v>582</v>
       </c>
-      <c r="G6" s="83">
+      <c r="I6" s="43">
         <v>350</v>
       </c>
-      <c r="H6" s="83">
+      <c r="J6" s="43">
         <v>125</v>
       </c>
-      <c r="I6" s="83">
-        <f>SUM(F6:H6)</f>
+      <c r="K6" s="43">
+        <f>SUM(H6:J6)</f>
         <v>1057</v>
       </c>
-      <c r="J6" s="83">
+      <c r="L6" s="43">
         <v>58</v>
       </c>
-      <c r="K6" s="83">
+      <c r="M6" s="43">
         <v>32</v>
       </c>
-      <c r="L6" s="83">
+      <c r="N6" s="43">
         <v>8</v>
       </c>
-      <c r="M6" s="83">
-        <f>SUM(J6:L6)</f>
+      <c r="O6" s="43">
+        <f>SUM(L6:N6)</f>
         <v>98</v>
       </c>
-      <c r="N6" s="83">
+      <c r="P6" s="43">
         <v>38</v>
       </c>
-      <c r="O6" s="83">
+      <c r="Q6" s="43">
         <v>12</v>
       </c>
-      <c r="P6" s="83">
+      <c r="R6" s="43">
         <v>18</v>
       </c>
-      <c r="Q6" s="83">
-        <f>SUM(N6:P6)</f>
+      <c r="S6" s="43">
+        <f>SUM(P6:R6)</f>
         <v>68</v>
       </c>
-      <c r="R6" s="84">
+      <c r="T6" s="44">
         <v>520</v>
       </c>
-      <c r="S6" s="84">
+      <c r="U6" s="44">
         <v>890</v>
       </c>
-      <c r="T6" s="84">
+      <c r="V6" s="44">
         <v>85</v>
       </c>
-      <c r="U6" s="84">
+      <c r="W6" s="44">
         <v>15</v>
       </c>
-      <c r="V6" s="84">
-        <f>SUM(R6:U6)</f>
+      <c r="X6" s="44">
+        <f>SUM(T6:W6)</f>
         <v>1510</v>
       </c>
-      <c r="W6" s="84">
+      <c r="Y6" s="44">
         <v>320</v>
       </c>
-      <c r="X6" s="84">
+      <c r="Z6" s="44">
         <v>890</v>
       </c>
-      <c r="Y6" s="84">
+      <c r="AA6" s="44">
         <v>85</v>
       </c>
-      <c r="Z6" s="84">
+      <c r="AB6" s="44">
         <v>15</v>
       </c>
-      <c r="AA6" s="84">
-        <f>SUM(W6:Z6)</f>
+      <c r="AC6" s="44">
+        <f>SUM(Y6:AB6)</f>
         <v>1310</v>
       </c>
-      <c r="AB6" s="83">
+      <c r="AD6" s="43">
         <v>52</v>
       </c>
-      <c r="AC6" s="83">
+      <c r="AE6" s="43">
         <v>69</v>
       </c>
-      <c r="AD6" s="83">
+      <c r="AF6" s="43">
         <v>68</v>
       </c>
-      <c r="AE6" s="83">
+      <c r="AG6" s="43">
         <v>25</v>
       </c>
-      <c r="AF6" s="83">
+      <c r="AH6" s="43">
         <v>12</v>
       </c>
-      <c r="AG6" s="83">
+      <c r="AI6" s="43">
         <v>5</v>
       </c>
-      <c r="AH6" s="83">
-        <f>SUM(AB6:AG6)</f>
+      <c r="AJ6" s="43">
+        <f>SUM(AD6:AI6)</f>
         <v>231</v>
       </c>
-      <c r="AI6" s="83">
+      <c r="AK6" s="43">
         <v>42</v>
       </c>
-      <c r="AJ6" s="83">
+      <c r="AL6" s="43">
         <v>59</v>
       </c>
-      <c r="AK6" s="83">
+      <c r="AM6" s="43">
         <v>58</v>
       </c>
-      <c r="AL6" s="83">
+      <c r="AN6" s="43">
         <v>15</v>
       </c>
-      <c r="AM6" s="83">
+      <c r="AO6" s="43">
         <v>2</v>
       </c>
-      <c r="AN6" s="83">
+      <c r="AP6" s="43">
         <v>0.5</v>
       </c>
-      <c r="AO6" s="83">
-        <f>SUM(AI6:AN6)</f>
+      <c r="AQ6" s="43">
+        <f>SUM(AK6:AP6)</f>
         <v>176.5</v>
       </c>
-      <c r="AP6" s="85">
+      <c r="AR6" s="45">
         <v>56</v>
       </c>
-      <c r="AQ6" s="84">
+      <c r="AS6" s="44">
         <v>52</v>
       </c>
-      <c r="AR6" s="84">
+      <c r="AT6" s="44">
         <v>45</v>
       </c>
-      <c r="AS6" s="84">
+      <c r="AU6" s="44">
         <v>52</v>
       </c>
-      <c r="AT6" s="84">
+      <c r="AV6" s="44">
         <v>5890</v>
       </c>
-      <c r="AU6" s="83">
+      <c r="AW6" s="43">
         <v>2589</v>
       </c>
-      <c r="AV6" s="83">
+      <c r="AX6" s="43">
         <v>2689</v>
       </c>
-      <c r="AW6" s="84">
+      <c r="AY6" s="44">
         <v>5200</v>
       </c>
-      <c r="AX6" s="84">
+      <c r="AZ6" s="44">
         <v>6890</v>
       </c>
-      <c r="AY6" s="84">
+      <c r="BA6" s="44">
         <v>69874</v>
       </c>
-      <c r="AZ6" s="84">
+      <c r="BB6" s="44">
         <v>3200</v>
       </c>
-      <c r="BA6" s="84">
+      <c r="BC6" s="44">
         <v>3890</v>
       </c>
-      <c r="BB6" s="84">
+      <c r="BD6" s="44">
         <v>65987</v>
       </c>
-      <c r="BC6" s="84">
-        <f>SUM(AW6:BB6)</f>
+      <c r="BE6" s="44">
+        <f>SUM(AY6:BD6)</f>
         <v>155041</v>
       </c>
-      <c r="BD6" s="86">
+      <c r="BF6" s="46">
         <v>6985210</v>
       </c>
-      <c r="BE6" s="86">
+      <c r="BG6" s="46">
         <v>4251</v>
       </c>
-      <c r="BF6" s="84">
+      <c r="BH6" s="44">
         <v>5200</v>
       </c>
-      <c r="BG6" s="84">
+      <c r="BI6" s="44">
         <v>6890</v>
       </c>
-      <c r="BH6" s="84">
+      <c r="BJ6" s="44">
         <v>2586</v>
       </c>
-      <c r="BI6" s="87">
+      <c r="BK6" s="47">
         <v>3200</v>
       </c>
-      <c r="BJ6" s="87">
+      <c r="BL6" s="47">
         <v>3890</v>
       </c>
-      <c r="BK6" s="87">
+      <c r="BM6" s="47">
         <v>65987</v>
       </c>
-      <c r="BL6" s="87">
-        <f>SUM(BF6:BK6)</f>
+      <c r="BN6" s="47">
+        <f>SUM(BH6:BM6)</f>
         <v>87753</v>
       </c>
-      <c r="BM6" s="88">
+      <c r="BO6" s="48">
         <v>125962</v>
       </c>
-      <c r="BN6" s="89">
+      <c r="BP6" s="49">
         <v>2598</v>
       </c>
-      <c r="BO6" s="90">
+      <c r="BQ6" s="50">
         <v>80</v>
       </c>
-      <c r="BP6" s="90">
+      <c r="BR6" s="50">
         <v>40</v>
       </c>
-      <c r="BQ6" s="91">
+      <c r="BS6" s="51">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:92" s="37" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="92">
+    <row r="7" spans="1:94" s="30" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="136">
         <v>2020</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="131">
         <v>5250</v>
       </c>
-      <c r="C7" s="93">
+      <c r="E7" s="52">
         <v>750</v>
       </c>
-      <c r="D7" s="93">
+      <c r="F7" s="52">
         <v>360</v>
       </c>
-      <c r="E7" s="93">
-        <f>SUM(B7:D7)</f>
+      <c r="G7" s="52">
+        <f>SUM(D7:F7)</f>
         <v>6360</v>
       </c>
-      <c r="F7" s="93">
+      <c r="H7" s="52">
         <v>5694</v>
       </c>
-      <c r="G7" s="93">
+      <c r="I7" s="52">
         <v>325</v>
       </c>
-      <c r="H7" s="93">
+      <c r="J7" s="52">
         <v>198</v>
       </c>
-      <c r="I7" s="93">
-        <f>SUM(F7:H7)</f>
+      <c r="K7" s="52">
+        <f>SUM(H7:J7)</f>
         <v>6217</v>
       </c>
-      <c r="J7" s="93">
+      <c r="L7" s="52">
         <v>52</v>
       </c>
-      <c r="K7" s="93">
+      <c r="M7" s="52">
         <v>35</v>
       </c>
-      <c r="L7" s="93">
+      <c r="N7" s="52">
         <v>7</v>
       </c>
-      <c r="M7" s="93">
-        <f>SUM(J7:L7)</f>
+      <c r="O7" s="52">
+        <f>SUM(L7:N7)</f>
         <v>94</v>
       </c>
-      <c r="N7" s="93">
+      <c r="P7" s="52">
         <v>32</v>
       </c>
-      <c r="O7" s="93">
+      <c r="Q7" s="52">
         <v>15</v>
       </c>
-      <c r="P7" s="93">
+      <c r="R7" s="52">
         <v>15</v>
       </c>
-      <c r="Q7" s="93">
-        <f>SUM(N7:P7)</f>
+      <c r="S7" s="52">
+        <f>SUM(P7:R7)</f>
         <v>62</v>
       </c>
-      <c r="R7" s="94">
+      <c r="T7" s="53">
         <v>358</v>
       </c>
-      <c r="S7" s="94">
+      <c r="U7" s="53">
         <v>590</v>
       </c>
-      <c r="T7" s="94">
+      <c r="V7" s="53">
         <v>105</v>
       </c>
-      <c r="U7" s="94">
+      <c r="W7" s="53">
         <v>10</v>
       </c>
-      <c r="V7" s="94">
-        <f>SUM(R7:U7)</f>
+      <c r="X7" s="53">
+        <f>SUM(T7:W7)</f>
         <v>1063</v>
       </c>
-      <c r="W7" s="94">
+      <c r="Y7" s="53">
         <v>158</v>
       </c>
-      <c r="X7" s="94">
+      <c r="Z7" s="53">
         <v>590</v>
       </c>
-      <c r="Y7" s="94">
+      <c r="AA7" s="53">
         <v>105</v>
       </c>
-      <c r="Z7" s="94">
+      <c r="AB7" s="53">
         <v>10</v>
       </c>
-      <c r="AA7" s="94">
-        <f>SUM(W7:Z7)</f>
+      <c r="AC7" s="53">
+        <f>SUM(Y7:AB7)</f>
         <v>863</v>
       </c>
-      <c r="AB7" s="93">
+      <c r="AD7" s="52">
         <v>75</v>
       </c>
-      <c r="AC7" s="93">
+      <c r="AE7" s="52">
         <v>68</v>
       </c>
-      <c r="AD7" s="93">
+      <c r="AF7" s="52">
         <v>84</v>
       </c>
-      <c r="AE7" s="93">
+      <c r="AG7" s="52">
         <v>35</v>
       </c>
-      <c r="AF7" s="93">
+      <c r="AH7" s="52">
         <v>15</v>
       </c>
-      <c r="AG7" s="93">
+      <c r="AI7" s="52">
         <v>7</v>
       </c>
-      <c r="AH7" s="93">
-        <f>SUM(AB7:AG7)</f>
+      <c r="AJ7" s="52">
+        <f>SUM(AD7:AI7)</f>
         <v>284</v>
       </c>
-      <c r="AI7" s="93">
+      <c r="AK7" s="52">
         <v>65</v>
       </c>
-      <c r="AJ7" s="93">
+      <c r="AL7" s="52">
         <v>48</v>
       </c>
-      <c r="AK7" s="93">
+      <c r="AM7" s="52">
         <v>64</v>
       </c>
-      <c r="AL7" s="93">
+      <c r="AN7" s="52">
         <v>15</v>
       </c>
-      <c r="AM7" s="93">
+      <c r="AO7" s="52">
         <v>5</v>
       </c>
-      <c r="AN7" s="93">
+      <c r="AP7" s="52">
         <v>0.7</v>
       </c>
-      <c r="AO7" s="93">
-        <f>SUM(AI7:AN7)</f>
+      <c r="AQ7" s="52">
+        <f>SUM(AK7:AP7)</f>
         <v>197.7</v>
       </c>
-      <c r="AP7" s="95">
+      <c r="AR7" s="54">
         <v>150</v>
       </c>
-      <c r="AQ7" s="94">
+      <c r="AS7" s="53">
         <v>15</v>
       </c>
-      <c r="AR7" s="94">
+      <c r="AT7" s="53">
         <v>48</v>
       </c>
-      <c r="AS7" s="94">
+      <c r="AU7" s="53">
         <v>85</v>
       </c>
-      <c r="AT7" s="94">
+      <c r="AV7" s="53">
         <v>1589</v>
       </c>
-      <c r="AU7" s="93">
+      <c r="AW7" s="52">
         <v>3598</v>
       </c>
-      <c r="AV7" s="93">
+      <c r="AX7" s="52">
         <v>6598</v>
       </c>
-      <c r="AW7" s="94">
+      <c r="AY7" s="53">
         <v>5250</v>
       </c>
-      <c r="AX7" s="94">
+      <c r="AZ7" s="53">
         <v>7821</v>
       </c>
-      <c r="AY7" s="94">
+      <c r="BA7" s="53">
         <v>56987</v>
       </c>
-      <c r="AZ7" s="94">
+      <c r="BB7" s="53">
         <v>4250</v>
       </c>
-      <c r="BA7" s="94">
+      <c r="BC7" s="53">
         <v>4872</v>
       </c>
-      <c r="BB7" s="94">
+      <c r="BD7" s="53">
         <v>25984</v>
       </c>
-      <c r="BC7" s="94">
-        <f>SUM(AW7:BB7)</f>
+      <c r="BE7" s="53">
+        <f>SUM(AY7:BD7)</f>
         <v>105164</v>
       </c>
-      <c r="BD7" s="96">
+      <c r="BF7" s="55">
         <v>2659840</v>
       </c>
-      <c r="BE7" s="96">
+      <c r="BG7" s="55">
         <v>4261</v>
       </c>
-      <c r="BF7" s="94">
+      <c r="BH7" s="53">
         <v>5250</v>
       </c>
-      <c r="BG7" s="94">
+      <c r="BI7" s="53">
         <v>7821</v>
       </c>
-      <c r="BH7" s="94">
+      <c r="BJ7" s="53">
         <v>1254</v>
       </c>
-      <c r="BI7" s="94">
+      <c r="BK7" s="53">
         <v>4250</v>
       </c>
-      <c r="BJ7" s="94">
+      <c r="BL7" s="53">
         <v>4872</v>
       </c>
-      <c r="BK7" s="94">
+      <c r="BM7" s="53">
         <v>25984</v>
       </c>
-      <c r="BL7" s="94">
-        <f>SUM(BF7:BK7)</f>
+      <c r="BN7" s="53">
+        <f>SUM(BH7:BM7)</f>
         <v>49431</v>
       </c>
-      <c r="BM7" s="97">
+      <c r="BO7" s="56">
         <v>125487</v>
       </c>
-      <c r="BN7" s="98">
+      <c r="BP7" s="57">
         <v>1248</v>
       </c>
-      <c r="BO7" s="99">
+      <c r="BQ7" s="58">
         <v>90</v>
       </c>
-      <c r="BP7" s="99">
+      <c r="BR7" s="58">
         <v>15</v>
       </c>
-      <c r="BQ7" s="100">
+      <c r="BS7" s="59">
         <v>26</v>
       </c>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="101"/>
-      <c r="BW7" s="101"/>
-      <c r="BX7" s="101"/>
-      <c r="BY7" s="101"/>
-      <c r="BZ7" s="101"/>
-      <c r="CA7" s="101"/>
-      <c r="CB7" s="101"/>
-      <c r="CC7" s="101"/>
-      <c r="CD7" s="101"/>
-      <c r="CE7" s="101"/>
-      <c r="CF7" s="101"/>
-      <c r="CG7" s="101"/>
-      <c r="CH7" s="101"/>
-      <c r="CI7" s="101"/>
-      <c r="CJ7" s="101"/>
-      <c r="CK7" s="101"/>
-      <c r="CL7" s="101"/>
-      <c r="CM7" s="101"/>
-      <c r="CN7" s="101"/>
-    </row>
-    <row r="8" spans="1:92" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="102">
+      <c r="BT7" s="60"/>
+      <c r="BU7" s="60"/>
+      <c r="BV7" s="60"/>
+      <c r="BW7" s="60"/>
+      <c r="BX7" s="60"/>
+      <c r="BY7" s="60"/>
+      <c r="BZ7" s="60"/>
+      <c r="CA7" s="60"/>
+      <c r="CB7" s="60"/>
+      <c r="CC7" s="60"/>
+      <c r="CD7" s="60"/>
+      <c r="CE7" s="60"/>
+      <c r="CF7" s="60"/>
+      <c r="CG7" s="60"/>
+      <c r="CH7" s="60"/>
+      <c r="CI7" s="60"/>
+      <c r="CJ7" s="60"/>
+      <c r="CK7" s="60"/>
+      <c r="CL7" s="60"/>
+      <c r="CM7" s="60"/>
+      <c r="CN7" s="60"/>
+      <c r="CO7" s="60"/>
+      <c r="CP7" s="60"/>
+    </row>
+    <row r="8" spans="1:94" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="137">
         <v>2021</v>
       </c>
-      <c r="B8" s="103">
+      <c r="B8" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="128">
         <v>4800</v>
       </c>
-      <c r="C8" s="103">
+      <c r="E8" s="61">
         <v>695</v>
       </c>
-      <c r="D8" s="103">
+      <c r="F8" s="61">
         <v>581</v>
       </c>
-      <c r="E8" s="104">
-        <f>SUM(B8:D8)</f>
+      <c r="G8" s="62">
+        <f>SUM(D8:F8)</f>
         <v>6076</v>
       </c>
-      <c r="F8" s="103">
+      <c r="H8" s="61">
         <v>489</v>
       </c>
-      <c r="G8" s="103">
+      <c r="I8" s="61">
         <v>365</v>
       </c>
-      <c r="H8" s="103">
+      <c r="J8" s="61">
         <v>250</v>
       </c>
-      <c r="I8" s="104">
-        <f>SUM(F8:H8)</f>
+      <c r="K8" s="62">
+        <f>SUM(H8:J8)</f>
         <v>1104</v>
       </c>
-      <c r="J8" s="105">
+      <c r="L8" s="63">
         <v>50</v>
       </c>
-      <c r="K8" s="105">
+      <c r="M8" s="63">
         <v>30</v>
       </c>
-      <c r="L8" s="105">
+      <c r="N8" s="63">
         <v>7</v>
       </c>
-      <c r="M8" s="104">
-        <f>SUM(J8:L8)</f>
+      <c r="O8" s="62">
+        <f>SUM(L8:N8)</f>
         <v>87</v>
       </c>
-      <c r="N8" s="105">
+      <c r="P8" s="63">
         <v>30</v>
       </c>
-      <c r="O8" s="105">
+      <c r="Q8" s="63">
         <v>10</v>
       </c>
-      <c r="P8" s="105">
+      <c r="R8" s="63">
         <v>12</v>
       </c>
-      <c r="Q8" s="104">
-        <f>SUM(N8:P8)</f>
+      <c r="S8" s="62">
+        <f>SUM(P8:R8)</f>
         <v>52</v>
       </c>
-      <c r="R8" s="106">
+      <c r="T8" s="64">
         <v>589</v>
       </c>
-      <c r="S8" s="106">
+      <c r="U8" s="64">
         <v>620</v>
       </c>
-      <c r="T8" s="106">
+      <c r="V8" s="64">
         <v>154</v>
       </c>
-      <c r="U8" s="106">
+      <c r="W8" s="64">
         <v>41</v>
       </c>
-      <c r="V8" s="87">
-        <f>SUM(R8:U8)</f>
+      <c r="X8" s="47">
+        <f>SUM(T8:W8)</f>
         <v>1404</v>
       </c>
-      <c r="W8" s="106">
+      <c r="Y8" s="64">
         <v>259</v>
       </c>
-      <c r="X8" s="106">
+      <c r="Z8" s="64">
         <v>620</v>
       </c>
-      <c r="Y8" s="106">
+      <c r="AA8" s="64">
         <v>154</v>
       </c>
-      <c r="Z8" s="106">
+      <c r="AB8" s="64">
         <v>41</v>
       </c>
-      <c r="AA8" s="87">
-        <f>SUM(W8:Z8)</f>
+      <c r="AC8" s="47">
+        <f>SUM(Y8:AB8)</f>
         <v>1074</v>
       </c>
-      <c r="AB8" s="105">
+      <c r="AD8" s="63">
         <v>82</v>
       </c>
-      <c r="AC8" s="105">
+      <c r="AE8" s="63">
         <v>78</v>
       </c>
-      <c r="AD8" s="105">
+      <c r="AF8" s="63">
         <v>98</v>
       </c>
-      <c r="AE8" s="105">
+      <c r="AG8" s="63">
         <v>45</v>
       </c>
-      <c r="AF8" s="105">
+      <c r="AH8" s="63">
         <v>18</v>
       </c>
-      <c r="AG8" s="105">
+      <c r="AI8" s="63">
         <v>10</v>
       </c>
-      <c r="AH8" s="104">
-        <f>SUM(AB8:AG8)</f>
+      <c r="AJ8" s="62">
+        <f>SUM(AD8:AI8)</f>
         <v>331</v>
       </c>
-      <c r="AI8" s="105">
+      <c r="AK8" s="63">
         <v>62</v>
       </c>
-      <c r="AJ8" s="105">
+      <c r="AL8" s="63">
         <v>68</v>
       </c>
-      <c r="AK8" s="105">
+      <c r="AM8" s="63">
         <v>68</v>
       </c>
-      <c r="AL8" s="105">
+      <c r="AN8" s="63">
         <v>25</v>
       </c>
-      <c r="AM8" s="105">
+      <c r="AO8" s="63">
         <v>8</v>
       </c>
-      <c r="AN8" s="105">
+      <c r="AP8" s="63">
         <v>0.5</v>
       </c>
-      <c r="AO8" s="105">
-        <f>SUM(AI8:AN8)</f>
+      <c r="AQ8" s="63">
+        <f>SUM(AK8:AP8)</f>
         <v>231.5</v>
       </c>
-      <c r="AP8" s="107">
+      <c r="AR8" s="65">
         <v>158</v>
       </c>
-      <c r="AQ8" s="106">
+      <c r="AS8" s="64">
         <v>159</v>
       </c>
-      <c r="AR8" s="106">
+      <c r="AT8" s="64">
         <v>435</v>
       </c>
-      <c r="AS8" s="106">
+      <c r="AU8" s="64">
         <v>487</v>
       </c>
-      <c r="AT8" s="106">
+      <c r="AV8" s="64">
         <v>1578</v>
       </c>
-      <c r="AU8" s="104">
+      <c r="AW8" s="62">
         <v>5896</v>
       </c>
-      <c r="AV8" s="105">
+      <c r="AX8" s="63">
         <v>3657</v>
       </c>
-      <c r="AW8" s="106">
+      <c r="AY8" s="64">
         <v>6895</v>
       </c>
-      <c r="AX8" s="106">
+      <c r="AZ8" s="64">
         <v>5621</v>
       </c>
-      <c r="AY8" s="106">
+      <c r="BA8" s="64">
         <v>65231</v>
       </c>
-      <c r="AZ8" s="106">
+      <c r="BB8" s="64">
         <v>5987</v>
       </c>
-      <c r="BA8" s="106">
+      <c r="BC8" s="64">
         <v>6598</v>
       </c>
-      <c r="BB8" s="106">
+      <c r="BD8" s="64">
         <v>26591</v>
       </c>
-      <c r="BC8" s="87">
-        <f>SUM(AW8:BB8)</f>
+      <c r="BE8" s="47">
+        <f>SUM(AY8:BD8)</f>
         <v>116923</v>
       </c>
-      <c r="BD8" s="108">
+      <c r="BF8" s="66">
         <v>3659840</v>
       </c>
-      <c r="BE8" s="108">
+      <c r="BG8" s="66">
         <v>3265</v>
       </c>
-      <c r="BF8" s="106">
+      <c r="BH8" s="64">
         <v>6895</v>
       </c>
-      <c r="BG8" s="106">
+      <c r="BI8" s="64">
         <v>5621</v>
       </c>
-      <c r="BH8" s="106">
+      <c r="BJ8" s="64">
         <v>1364</v>
       </c>
-      <c r="BI8" s="106">
+      <c r="BK8" s="64">
         <v>5987</v>
       </c>
-      <c r="BJ8" s="106">
+      <c r="BL8" s="64">
         <v>6598</v>
       </c>
-      <c r="BK8" s="106">
+      <c r="BM8" s="64">
         <v>26591</v>
       </c>
-      <c r="BL8" s="87">
-        <f>SUM(BF8:BK8)</f>
+      <c r="BN8" s="47">
+        <f>SUM(BH8:BM8)</f>
         <v>53056</v>
       </c>
-      <c r="BM8" s="109">
+      <c r="BO8" s="67">
         <v>52014</v>
       </c>
-      <c r="BN8" s="110">
+      <c r="BP8" s="68">
         <v>3569</v>
       </c>
-      <c r="BO8" s="105">
+      <c r="BQ8" s="63">
         <v>58</v>
       </c>
-      <c r="BP8" s="105">
+      <c r="BR8" s="63">
         <v>64</v>
       </c>
-      <c r="BQ8" s="111">
+      <c r="BS8" s="69">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:92" s="123" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="112">
+    <row r="9" spans="1:94" s="80" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="138">
         <v>2022</v>
       </c>
-      <c r="B9" s="113">
+      <c r="B9" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="132">
         <v>2500</v>
       </c>
-      <c r="C9" s="113">
+      <c r="E9" s="70">
         <v>200</v>
       </c>
-      <c r="D9" s="113">
+      <c r="F9" s="70">
         <v>85</v>
       </c>
-      <c r="E9" s="114">
-        <f>SUM(B9:D9)</f>
+      <c r="G9" s="71">
+        <f>SUM(D9:F9)</f>
         <v>2785</v>
       </c>
-      <c r="F9" s="113">
+      <c r="H9" s="70">
         <v>95</v>
       </c>
-      <c r="G9" s="113">
+      <c r="I9" s="70">
         <v>74</v>
       </c>
-      <c r="H9" s="113">
+      <c r="J9" s="70">
         <v>87</v>
       </c>
-      <c r="I9" s="114">
-        <f>SUM(F9:H9)</f>
+      <c r="K9" s="71">
+        <f>SUM(H9:J9)</f>
         <v>256</v>
       </c>
-      <c r="J9" s="115">
+      <c r="L9" s="72">
         <v>15</v>
       </c>
-      <c r="K9" s="115">
+      <c r="M9" s="72">
         <v>8</v>
       </c>
-      <c r="L9" s="115">
+      <c r="N9" s="72">
         <v>0.5</v>
       </c>
-      <c r="M9" s="114">
-        <f>SUM(J9:L9)</f>
+      <c r="O9" s="71">
+        <f>SUM(L9:N9)</f>
         <v>23.5</v>
       </c>
-      <c r="N9" s="115">
+      <c r="P9" s="72">
         <v>5</v>
       </c>
-      <c r="O9" s="115">
+      <c r="Q9" s="72">
         <v>8</v>
       </c>
-      <c r="P9" s="115">
+      <c r="R9" s="72">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="114">
-        <f>SUM(N9:P9)</f>
+      <c r="S9" s="71">
+        <f>SUM(P9:R9)</f>
         <v>13.5</v>
       </c>
-      <c r="R9" s="116">
+      <c r="T9" s="73">
         <v>215</v>
       </c>
-      <c r="S9" s="116">
+      <c r="U9" s="73">
         <v>158</v>
       </c>
-      <c r="T9" s="116">
+      <c r="V9" s="73">
         <v>85</v>
       </c>
-      <c r="U9" s="116">
+      <c r="W9" s="73">
         <v>2.5</v>
       </c>
-      <c r="V9" s="117">
-        <f>SUM(R9:U9)</f>
+      <c r="X9" s="74">
+        <f>SUM(T9:W9)</f>
         <v>460.5</v>
       </c>
-      <c r="W9" s="116">
+      <c r="Y9" s="73">
         <v>105</v>
       </c>
-      <c r="X9" s="116">
+      <c r="Z9" s="73">
         <v>158</v>
       </c>
-      <c r="Y9" s="116">
+      <c r="AA9" s="73">
         <v>85</v>
       </c>
-      <c r="Z9" s="116">
+      <c r="AB9" s="73">
         <v>2.5</v>
       </c>
-      <c r="AA9" s="117">
-        <f>SUM(W9:Z9)</f>
+      <c r="AC9" s="74">
+        <f>SUM(Y9:AB9)</f>
         <v>350.5</v>
       </c>
-      <c r="AB9" s="115">
+      <c r="AD9" s="72">
         <v>32</v>
       </c>
-      <c r="AC9" s="115">
+      <c r="AE9" s="72">
         <v>48</v>
       </c>
-      <c r="AD9" s="115">
+      <c r="AF9" s="72">
         <v>56</v>
       </c>
-      <c r="AE9" s="115">
+      <c r="AG9" s="72">
         <v>35</v>
       </c>
-      <c r="AF9" s="115">
+      <c r="AH9" s="72">
         <v>14</v>
       </c>
-      <c r="AG9" s="115">
+      <c r="AI9" s="72">
         <v>6</v>
       </c>
-      <c r="AH9" s="114">
-        <f>SUM(AB9:AG9)</f>
+      <c r="AJ9" s="71">
+        <f>SUM(AD9:AI9)</f>
         <v>191</v>
       </c>
-      <c r="AI9" s="115">
+      <c r="AK9" s="72">
         <v>12</v>
       </c>
-      <c r="AJ9" s="115">
+      <c r="AL9" s="72">
         <v>35</v>
       </c>
-      <c r="AK9" s="115">
+      <c r="AM9" s="72">
         <v>58</v>
       </c>
-      <c r="AL9" s="115">
+      <c r="AN9" s="72">
         <v>36</v>
       </c>
-      <c r="AM9" s="115">
+      <c r="AO9" s="72">
         <v>14</v>
       </c>
-      <c r="AN9" s="115">
+      <c r="AP9" s="72">
         <v>23</v>
       </c>
-      <c r="AO9" s="118">
-        <f>SUM(AI9:AN9)</f>
+      <c r="AQ9" s="75">
+        <f>SUM(AK9:AP9)</f>
         <v>178</v>
       </c>
-      <c r="AP9" s="119">
+      <c r="AR9" s="76">
         <v>54</v>
       </c>
-      <c r="AQ9" s="116">
+      <c r="AS9" s="73">
         <v>158</v>
       </c>
-      <c r="AR9" s="116">
+      <c r="AT9" s="73">
         <v>48</v>
       </c>
-      <c r="AS9" s="116">
+      <c r="AU9" s="73">
         <v>153</v>
       </c>
-      <c r="AT9" s="116">
+      <c r="AV9" s="73">
         <v>3598</v>
       </c>
-      <c r="AU9" s="114">
+      <c r="AW9" s="71">
         <v>3264</v>
       </c>
-      <c r="AV9" s="115">
+      <c r="AX9" s="72">
         <v>1587</v>
       </c>
-      <c r="AW9" s="116">
+      <c r="AY9" s="73">
         <v>5682</v>
       </c>
-      <c r="AX9" s="116">
+      <c r="AZ9" s="73">
         <v>4582</v>
       </c>
-      <c r="AY9" s="116">
+      <c r="BA9" s="73">
         <v>45281</v>
       </c>
-      <c r="AZ9" s="116">
+      <c r="BB9" s="73">
         <v>2598</v>
       </c>
-      <c r="BA9" s="116">
+      <c r="BC9" s="73">
         <v>2364</v>
       </c>
-      <c r="BB9" s="116">
+      <c r="BD9" s="73">
         <v>25621</v>
       </c>
-      <c r="BC9" s="117">
-        <f>SUM(AW9:BB9)</f>
+      <c r="BE9" s="74">
+        <f>SUM(AY9:BD9)</f>
         <v>86128</v>
       </c>
-      <c r="BD9" s="120">
+      <c r="BF9" s="77">
         <v>3695210</v>
       </c>
-      <c r="BE9" s="120">
+      <c r="BG9" s="77">
         <v>1254</v>
       </c>
-      <c r="BF9" s="116">
+      <c r="BH9" s="73">
         <v>5682</v>
       </c>
-      <c r="BG9" s="116">
+      <c r="BI9" s="73">
         <v>4582</v>
       </c>
-      <c r="BH9" s="116">
+      <c r="BJ9" s="73">
         <v>7582</v>
       </c>
-      <c r="BI9" s="116">
+      <c r="BK9" s="73">
         <v>2598</v>
       </c>
-      <c r="BJ9" s="116">
+      <c r="BL9" s="73">
         <v>2364</v>
       </c>
-      <c r="BK9" s="116">
+      <c r="BM9" s="73">
         <v>25621</v>
       </c>
-      <c r="BL9" s="117">
-        <f>SUM(BF9:BK9)</f>
+      <c r="BN9" s="74">
+        <f>SUM(BH9:BM9)</f>
         <v>48429</v>
       </c>
-      <c r="BM9" s="121">
+      <c r="BO9" s="78">
         <v>25361</v>
       </c>
-      <c r="BN9" s="118">
+      <c r="BP9" s="75">
         <v>6584</v>
       </c>
-      <c r="BO9" s="115">
+      <c r="BQ9" s="72">
         <v>89</v>
       </c>
-      <c r="BP9" s="115">
+      <c r="BR9" s="72">
         <v>47</v>
       </c>
-      <c r="BQ9" s="122">
+      <c r="BS9" s="79">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
-      <c r="R10" s="125">
+    <row r="10" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="T10" s="82">
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
-    </row>
-    <row r="12" spans="1:92" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="AE13" s="126"/>
-    </row>
-    <row r="14" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="J14" s="126"/>
-      <c r="V14" s="125" t="s">
+    <row r="11" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+    </row>
+    <row r="12" spans="1:94" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="AG13" s="83"/>
+    </row>
+    <row r="14" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L14" s="83"/>
+      <c r="X14" s="82" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="V15" s="125">
+    <row r="15" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="X15" s="82">
         <v>2019</v>
       </c>
-      <c r="AE15" s="126"/>
-    </row>
-    <row r="16" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="R16" s="127"/>
-      <c r="AE16" s="126"/>
-    </row>
-    <row r="17" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE17" s="126"/>
-    </row>
-    <row r="18" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE18" s="126"/>
-    </row>
-    <row r="19" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE19" s="126"/>
-    </row>
-    <row r="20" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE20" s="126"/>
-    </row>
-    <row r="21" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE21" s="125" t="s">
+      <c r="AG15" s="83"/>
+    </row>
+    <row r="16" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="T16" s="84"/>
+      <c r="AG16" s="83"/>
+    </row>
+    <row r="17" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG17" s="83"/>
+    </row>
+    <row r="18" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG18" s="83"/>
+    </row>
+    <row r="19" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG19" s="83"/>
+    </row>
+    <row r="20" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG20" s="83"/>
+    </row>
+    <row r="21" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG21" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE23" s="125" t="s">
+    <row r="22" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG23" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE24" s="127"/>
-    </row>
-    <row r="25" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE25" s="127"/>
-    </row>
-    <row r="26" spans="31:31" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE26" s="127"/>
-    </row>
-    <row r="27" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE27" s="127"/>
-    </row>
-    <row r="28" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE28" s="125" t="s">
+    <row r="24" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG24" s="84"/>
+    </row>
+    <row r="25" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG25" s="84"/>
+    </row>
+    <row r="26" spans="33:33" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG26" s="84"/>
+    </row>
+    <row r="27" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG27" s="84"/>
+    </row>
+    <row r="28" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG28" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE29" s="126">
+    <row r="29" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG29" s="83">
         <v>2589</v>
       </c>
     </row>
-    <row r="30" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE30" s="126">
+    <row r="30" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG30" s="83">
         <v>2689</v>
       </c>
     </row>
-    <row r="31" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE31" s="125" t="s">
+    <row r="31" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG31" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE32" s="125">
+    <row r="32" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG32" s="82">
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE33" s="127">
+    <row r="33" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG33" s="84">
         <v>5200</v>
       </c>
     </row>
-    <row r="34" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE34" s="127">
+    <row r="34" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG34" s="84">
         <v>6890</v>
       </c>
     </row>
-    <row r="35" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE35" s="127">
+    <row r="35" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG35" s="84">
         <v>69874</v>
       </c>
     </row>
-    <row r="36" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE36" s="127"/>
-    </row>
-    <row r="37" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE37" s="127">
+    <row r="36" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG36" s="84"/>
+    </row>
+    <row r="37" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG37" s="84">
         <v>3200</v>
       </c>
     </row>
-    <row r="38" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE38" s="127">
+    <row r="38" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG38" s="84">
         <v>3890</v>
       </c>
     </row>
-    <row r="39" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE39" s="127">
+    <row r="39" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG39" s="84">
         <v>65987</v>
       </c>
     </row>
-    <row r="40" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE40" s="127">
-        <f>SUM(AE33:AE39)</f>
+    <row r="40" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG40" s="84">
+        <f>SUM(AG33:AG39)</f>
         <v>155041</v>
       </c>
     </row>
-    <row r="41" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE41" s="125" t="s">
+    <row r="41" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG41" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE42" s="128">
+    <row r="42" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG42" s="85">
         <v>6985210</v>
       </c>
     </row>
-    <row r="43" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE43" s="128">
+    <row r="43" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG43" s="85">
         <v>4251</v>
       </c>
     </row>
-    <row r="44" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE44" s="125" t="s">
+    <row r="44" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG44" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE45" s="125">
+    <row r="45" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG45" s="82">
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE46" s="127">
+    <row r="46" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG46" s="84">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE47" s="127">
+    <row r="47" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG47" s="84">
         <v>6890</v>
       </c>
     </row>
-    <row r="48" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE48" s="127">
+    <row r="48" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG48" s="84">
         <v>2586</v>
       </c>
     </row>
-    <row r="49" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE49" s="127"/>
-    </row>
-    <row r="50" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE50" s="127">
+    <row r="49" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG49" s="84"/>
+    </row>
+    <row r="50" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG50" s="84">
         <v>3200</v>
       </c>
     </row>
-    <row r="51" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE51" s="127">
+    <row r="51" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG51" s="84">
         <v>3890</v>
       </c>
     </row>
-    <row r="52" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE52" s="127">
+    <row r="52" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG52" s="84">
         <v>65987</v>
       </c>
     </row>
-    <row r="53" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE53" s="127">
-        <f>SUM(AE46:AE52)</f>
+    <row r="53" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG53" s="84">
+        <f>SUM(AG46:AG52)</f>
         <v>87753</v>
       </c>
     </row>
-    <row r="54" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE54" s="125" t="s">
+    <row r="54" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG54" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE55" s="129">
+    <row r="55" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG55" s="86">
         <v>125962</v>
       </c>
     </row>
-    <row r="56" spans="31:31" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE56" s="101">
+    <row r="56" spans="33:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG56" s="60">
         <v>2598</v>
       </c>
     </row>
-    <row r="57" spans="31:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE57" s="125" t="s">
+    <row r="57" spans="33:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG57" s="82" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE58" s="130">
+    <row r="58" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG58" s="87">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE59" s="130">
+    <row r="59" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG59" s="87">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AE60" s="130">
+    <row r="60" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG60" s="87">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="31:31" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="31:31" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="31:31" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="51:51" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="51:51" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY75" s="124" t="s">
+    <row r="61" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="33:33" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="33:33" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="33:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="53:53" ht="43.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="53:53" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA75" s="81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY76" s="131" t="s">
+    <row r="76" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA76" s="88" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY77" s="131" t="s">
+    <row r="77" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA77" s="88" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY78" s="124" t="s">
+    <row r="78" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA78" s="81" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="51:51" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY79" s="131" t="s">
+    <row r="79" spans="53:53" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA79" s="88" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY80" s="131" t="s">
+    <row r="80" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA80" s="88" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AY81" s="131" t="s">
+    <row r="81" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BA81" s="88" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="51:51" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="51:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="53:53" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6936,32 +7025,34 @@
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="BO1:BQ4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AH4"/>
-    <mergeCell ref="AI4:AO4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AQ1:AT4"/>
-    <mergeCell ref="AU1:AV4"/>
-    <mergeCell ref="AW1:BC3"/>
-    <mergeCell ref="BD1:BE4"/>
-    <mergeCell ref="BF1:BL3"/>
-    <mergeCell ref="BM1:BN4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
+  <mergeCells count="27">
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BN4"/>
     <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:I3"/>
-    <mergeCell ref="J1:Q3"/>
-    <mergeCell ref="R1:AA3"/>
-    <mergeCell ref="AB1:AO3"/>
-    <mergeCell ref="AP1:AP4"/>
+    <mergeCell ref="D1:K3"/>
+    <mergeCell ref="L1:S3"/>
+    <mergeCell ref="T1:AC3"/>
+    <mergeCell ref="AD1:AQ3"/>
+    <mergeCell ref="AR1:AR4"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="BQ1:BS4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="AS1:AV4"/>
+    <mergeCell ref="AW1:AX4"/>
+    <mergeCell ref="AY1:BE3"/>
+    <mergeCell ref="BF1:BG4"/>
+    <mergeCell ref="BH1:BN3"/>
+    <mergeCell ref="BO1:BP4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/PLANTILLAS APLICATIVO/AES.xlsx
+++ b/PLANTILLAS APLICATIVO/AES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DFA72E-977F-44BC-B659-54579E3E64C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48202D3-6BBE-40FA-AAEA-878ECB1C82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedor" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
   <si>
     <t>AÑO</t>
   </si>
@@ -314,18 +314,6 @@
     <t>EDAD</t>
   </si>
   <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>TELEFONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AÑO </t>
-  </si>
-  <si>
     <t>PROYECTO</t>
   </si>
   <si>
@@ -534,9 +522,6 @@
   </si>
   <si>
     <t>OBRAS CIVILES</t>
-  </si>
-  <si>
-    <t>es una empresa de Arauca según el RUES</t>
   </si>
   <si>
     <t>OBRAS CIVILES Y ALQUILER DE VEHICULOS DE EMERGENCIA</t>
@@ -627,7 +612,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #.##0.00_-;\-* #.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +747,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -801,7 +794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -852,15 +845,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -882,17 +866,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1244,7 +1217,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,22 +1227,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1285,79 +1255,53 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1370,6 +1314,9 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1381,58 +1328,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1460,162 +1429,163 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="3" xr:uid="{30928C5B-BF08-40B3-928F-662A4EF87AFA}"/>
@@ -1836,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1847,13 +1817,10 @@
     <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
     <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="9" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="11" max="26" width="10.6640625" customWidth="1"/>
+    <col min="6" max="21" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,267 +1836,253 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E3" s="2">
         <v>21</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2022</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>135</v>
+      <c r="B4" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>134</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I4" s="139"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2022</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2022</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2022</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <v>2022</v>
-      </c>
-      <c r="B14" s="28" t="s">
+      <c r="C16" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="D16" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>2022</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="E16" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="29"/>
+      <c r="D18" s="27"/>
     </row>
     <row r="24" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3122,7 +3075,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3165,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>8</v>
@@ -3176,15 +3129,15 @@
         <v>2019</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>150000000</v>
       </c>
     </row>
@@ -3193,15 +3146,15 @@
         <v>2019</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="11">
+        <v>81</v>
+      </c>
+      <c r="E3" s="10">
         <v>750000000</v>
       </c>
     </row>
@@ -3210,15 +3163,15 @@
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>85000000</v>
       </c>
     </row>
@@ -3227,15 +3180,15 @@
         <v>2020</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="11">
+        <v>83</v>
+      </c>
+      <c r="E5" s="10">
         <v>120000000</v>
       </c>
     </row>
@@ -3244,15 +3197,15 @@
         <v>2020</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="11">
+        <v>84</v>
+      </c>
+      <c r="E6" s="10">
         <v>92560000</v>
       </c>
     </row>
@@ -3261,15 +3214,15 @@
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>250000000</v>
       </c>
     </row>
@@ -3278,15 +3231,15 @@
         <v>2021</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>958625120</v>
       </c>
     </row>
@@ -3295,15 +3248,15 @@
         <v>2021</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>56956250</v>
       </c>
     </row>
@@ -3312,15 +3265,15 @@
         <v>2021</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>65326980</v>
       </c>
     </row>
@@ -3329,15 +3282,15 @@
         <v>2021</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="11">
+        <v>84</v>
+      </c>
+      <c r="E11" s="10">
         <v>23598540</v>
       </c>
     </row>
@@ -4331,71 +4284,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACBFE39-3388-48C4-A903-01288C873081}">
   <dimension ref="A1:CP978"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="60"/>
-    <col min="2" max="2" width="15.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="60" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="60" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" style="60" customWidth="1"/>
-    <col min="12" max="19" width="10.6640625" style="60" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" style="60" customWidth="1"/>
-    <col min="21" max="24" width="10.6640625" style="60" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="60" customWidth="1"/>
-    <col min="26" max="28" width="10.6640625" style="60" customWidth="1"/>
-    <col min="29" max="43" width="14.44140625" style="60"/>
-    <col min="44" max="44" width="16.77734375" style="60" customWidth="1"/>
-    <col min="45" max="47" width="14.44140625" style="60"/>
-    <col min="48" max="48" width="17.33203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="22.5546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="51" max="61" width="14.44140625" style="60"/>
-    <col min="62" max="62" width="22.21875" style="60" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="14.44140625" style="60"/>
-    <col min="65" max="66" width="22.21875" style="60" bestFit="1" customWidth="1"/>
-    <col min="67" max="16384" width="14.44140625" style="60"/>
+    <col min="1" max="1" width="14.44140625" style="58"/>
+    <col min="2" max="2" width="15.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="58" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="58" customWidth="1"/>
+    <col min="12" max="19" width="10.6640625" style="58" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="58" customWidth="1"/>
+    <col min="21" max="24" width="10.6640625" style="58" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" style="58" customWidth="1"/>
+    <col min="26" max="28" width="10.6640625" style="58" customWidth="1"/>
+    <col min="29" max="43" width="14.44140625" style="58"/>
+    <col min="44" max="44" width="16.77734375" style="58" customWidth="1"/>
+    <col min="45" max="47" width="14.44140625" style="58"/>
+    <col min="48" max="48" width="17.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="22.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="51" max="61" width="14.44140625" style="58"/>
+    <col min="62" max="62" width="22.21875" style="58" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="14.44140625" style="58"/>
+    <col min="65" max="66" width="22.21875" style="58" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="14.44140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="30" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:94" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="90" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="89" t="s">
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="91"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="114"/>
       <c r="T1" s="118" t="s">
         <v>21</v>
       </c>
@@ -4424,71 +4377,71 @@
       <c r="AO1" s="119"/>
       <c r="AP1" s="119"/>
       <c r="AQ1" s="120"/>
-      <c r="AR1" s="116" t="s">
+      <c r="AR1" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="89" t="s">
+      <c r="AS1" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="91"/>
-      <c r="AW1" s="89" t="s">
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="110"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="91"/>
-      <c r="AY1" s="89" t="s">
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="90"/>
-      <c r="BE1" s="91"/>
-      <c r="BF1" s="89" t="s">
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="89" t="s">
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="90"/>
-      <c r="BJ1" s="90"/>
-      <c r="BK1" s="90"/>
-      <c r="BL1" s="90"/>
-      <c r="BM1" s="90"/>
-      <c r="BN1" s="91"/>
-      <c r="BO1" s="89" t="s">
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="91"/>
-      <c r="BQ1" s="89" t="s">
+      <c r="BP1" s="114"/>
+      <c r="BQ1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="90"/>
-      <c r="BS1" s="91"/>
-    </row>
-    <row r="2" spans="1:94" s="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="94"/>
+      <c r="BR1" s="110"/>
+      <c r="BS1" s="114"/>
+    </row>
+    <row r="2" spans="1:94" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="109"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="115"/>
       <c r="T2" s="121"/>
       <c r="U2" s="122"/>
       <c r="V2" s="122"/>
@@ -4513,55 +4466,55 @@
       <c r="AO2" s="122"/>
       <c r="AP2" s="122"/>
       <c r="AQ2" s="123"/>
-      <c r="AR2" s="117"/>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="94"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="93"/>
-      <c r="BA2" s="93"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="93"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="92"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="92"/>
-      <c r="BI2" s="93"/>
-      <c r="BJ2" s="93"/>
-      <c r="BK2" s="93"/>
-      <c r="BL2" s="93"/>
-      <c r="BM2" s="93"/>
-      <c r="BN2" s="94"/>
-      <c r="BO2" s="92"/>
-      <c r="BP2" s="94"/>
-      <c r="BQ2" s="92"/>
-      <c r="BR2" s="93"/>
-      <c r="BS2" s="94"/>
-    </row>
-    <row r="3" spans="1:94" s="30" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="97"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="109"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="115"/>
+      <c r="AW2" s="109"/>
+      <c r="AX2" s="115"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="112"/>
+      <c r="BA2" s="112"/>
+      <c r="BB2" s="112"/>
+      <c r="BC2" s="112"/>
+      <c r="BD2" s="112"/>
+      <c r="BE2" s="115"/>
+      <c r="BF2" s="109"/>
+      <c r="BG2" s="115"/>
+      <c r="BH2" s="109"/>
+      <c r="BI2" s="112"/>
+      <c r="BJ2" s="112"/>
+      <c r="BK2" s="112"/>
+      <c r="BL2" s="112"/>
+      <c r="BM2" s="112"/>
+      <c r="BN2" s="115"/>
+      <c r="BO2" s="109"/>
+      <c r="BP2" s="115"/>
+      <c r="BQ2" s="109"/>
+      <c r="BR2" s="112"/>
+      <c r="BS2" s="115"/>
+    </row>
+    <row r="3" spans="1:94" s="28" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="109"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="117"/>
       <c r="T3" s="124"/>
       <c r="U3" s="125"/>
       <c r="V3" s="125"/>
@@ -4586,1495 +4539,1495 @@
       <c r="AO3" s="125"/>
       <c r="AP3" s="125"/>
       <c r="AQ3" s="126"/>
-      <c r="AR3" s="117"/>
-      <c r="AS3" s="92"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="92"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="95"/>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="96"/>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="97"/>
-      <c r="BF3" s="92"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="95"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="96"/>
-      <c r="BM3" s="96"/>
-      <c r="BN3" s="97"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="93"/>
-      <c r="BS3" s="94"/>
-    </row>
-    <row r="4" spans="1:94" s="30" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="98" t="s">
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="109"/>
+      <c r="AT3" s="112"/>
+      <c r="AU3" s="112"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="109"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="113"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="113"/>
+      <c r="BC3" s="113"/>
+      <c r="BD3" s="113"/>
+      <c r="BE3" s="117"/>
+      <c r="BF3" s="109"/>
+      <c r="BG3" s="115"/>
+      <c r="BH3" s="116"/>
+      <c r="BI3" s="113"/>
+      <c r="BJ3" s="113"/>
+      <c r="BK3" s="113"/>
+      <c r="BL3" s="113"/>
+      <c r="BM3" s="113"/>
+      <c r="BN3" s="117"/>
+      <c r="BO3" s="109"/>
+      <c r="BP3" s="115"/>
+      <c r="BQ3" s="109"/>
+      <c r="BR3" s="112"/>
+      <c r="BS3" s="115"/>
+    </row>
+    <row r="4" spans="1:94" s="28" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="109"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99" t="s">
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="101" t="s">
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="101" t="s">
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="102"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="101" t="s">
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="104" t="s">
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="101" t="s">
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="102"/>
-      <c r="AF4" s="102"/>
-      <c r="AG4" s="102"/>
-      <c r="AH4" s="102"/>
-      <c r="AI4" s="102"/>
-      <c r="AJ4" s="103"/>
-      <c r="AK4" s="101" t="s">
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="102"/>
-      <c r="AM4" s="102"/>
-      <c r="AN4" s="102"/>
-      <c r="AO4" s="102"/>
-      <c r="AP4" s="102"/>
-      <c r="AQ4" s="102"/>
-      <c r="AR4" s="127"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="95"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="107" t="s">
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="100"/>
+      <c r="AO4" s="100"/>
+      <c r="AP4" s="100"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="129"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="113"/>
+      <c r="AU4" s="113"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="108"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="101" t="s">
+      <c r="AZ4" s="137"/>
+      <c r="BA4" s="138"/>
+      <c r="BB4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="BC4" s="102"/>
-      <c r="BD4" s="102"/>
-      <c r="BE4" s="103"/>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="110" t="s">
+      <c r="BC4" s="100"/>
+      <c r="BD4" s="100"/>
+      <c r="BE4" s="101"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="117"/>
+      <c r="BH4" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="BI4" s="111"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="113" t="s">
+      <c r="BI4" s="103"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="BL4" s="114"/>
-      <c r="BM4" s="114"/>
-      <c r="BN4" s="115"/>
-      <c r="BO4" s="95"/>
-      <c r="BP4" s="97"/>
-      <c r="BQ4" s="95"/>
-      <c r="BR4" s="96"/>
-      <c r="BS4" s="97"/>
-    </row>
-    <row r="5" spans="1:94" s="30" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="31" t="s">
+      <c r="BL4" s="106"/>
+      <c r="BM4" s="106"/>
+      <c r="BN4" s="107"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="117"/>
+      <c r="BQ4" s="116"/>
+      <c r="BR4" s="113"/>
+      <c r="BS4" s="117"/>
+    </row>
+    <row r="5" spans="1:94" s="28" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="109"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="O5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="R5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="33" t="s">
+      <c r="S5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="U5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="V5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="33" t="s">
+      <c r="X5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AA5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AB5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AC5" s="33" t="s">
+      <c r="AC5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AD5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AE5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AF5" s="32" t="s">
+      <c r="AF5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AG5" s="32" t="s">
+      <c r="AG5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="32" t="s">
+      <c r="AH5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="32" t="s">
+      <c r="AI5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AJ5" s="33" t="s">
+      <c r="AJ5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AK5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AL5" s="32" t="s">
+      <c r="AL5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AM5" s="32" t="s">
+      <c r="AM5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AN5" s="32" t="s">
+      <c r="AN5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AO5" s="32" t="s">
+      <c r="AO5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="AP5" s="32" t="s">
+      <c r="AP5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AQ5" s="33" t="s">
+      <c r="AQ5" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AR5" s="35" t="s">
+      <c r="AR5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AS5" s="34" t="s">
+      <c r="AS5" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AT5" s="32" t="s">
+      <c r="AT5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AU5" s="32" t="s">
+      <c r="AU5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AV5" s="36" t="s">
+      <c r="AV5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AW5" s="34" t="s">
+      <c r="AW5" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AX5" s="36" t="s">
+      <c r="AX5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AY5" s="34" t="s">
+      <c r="AY5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AZ5" s="32" t="s">
+      <c r="AZ5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BA5" s="36" t="s">
+      <c r="BA5" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BB5" s="34" t="s">
+      <c r="BB5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BC5" s="32" t="s">
+      <c r="BC5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BD5" s="32" t="s">
+      <c r="BD5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BE5" s="33" t="s">
+      <c r="BE5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BF5" s="37" t="s">
+      <c r="BF5" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="BG5" s="38" t="s">
+      <c r="BG5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="BH5" s="34" t="s">
+      <c r="BH5" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BI5" s="32" t="s">
+      <c r="BI5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BJ5" s="32" t="s">
+      <c r="BJ5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BK5" s="39" t="s">
+      <c r="BK5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="BL5" s="40" t="s">
+      <c r="BL5" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="BM5" s="41" t="s">
+      <c r="BM5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="BN5" s="42" t="s">
+      <c r="BN5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="BO5" s="31" t="s">
+      <c r="BO5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BP5" s="36" t="s">
+      <c r="BP5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="BQ5" s="34" t="s">
+      <c r="BQ5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="BR5" s="32" t="s">
+      <c r="BR5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="BS5" s="36" t="s">
+      <c r="BS5" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:94" s="30" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="135">
+    <row r="6" spans="1:94" s="28" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="93">
         <v>2019</v>
       </c>
-      <c r="B6" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="130">
+      <c r="B6" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="88">
         <v>5200</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>850</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="41">
         <v>520</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="41">
         <f>SUM(D6:F6)</f>
         <v>6570</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="41">
         <v>582</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="41">
         <v>350</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="41">
         <v>125</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="41">
         <f>SUM(H6:J6)</f>
         <v>1057</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="41">
         <v>58</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>32</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="41">
         <v>8</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="41">
         <f>SUM(L6:N6)</f>
         <v>98</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="41">
         <v>38</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="41">
         <v>12</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="41">
         <v>18</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="41">
         <f>SUM(P6:R6)</f>
         <v>68</v>
       </c>
-      <c r="T6" s="44">
+      <c r="T6" s="42">
         <v>520</v>
       </c>
-      <c r="U6" s="44">
+      <c r="U6" s="42">
         <v>890</v>
       </c>
-      <c r="V6" s="44">
+      <c r="V6" s="42">
         <v>85</v>
       </c>
-      <c r="W6" s="44">
+      <c r="W6" s="42">
         <v>15</v>
       </c>
-      <c r="X6" s="44">
+      <c r="X6" s="42">
         <f>SUM(T6:W6)</f>
         <v>1510</v>
       </c>
-      <c r="Y6" s="44">
+      <c r="Y6" s="42">
         <v>320</v>
       </c>
-      <c r="Z6" s="44">
+      <c r="Z6" s="42">
         <v>890</v>
       </c>
-      <c r="AA6" s="44">
+      <c r="AA6" s="42">
         <v>85</v>
       </c>
-      <c r="AB6" s="44">
+      <c r="AB6" s="42">
         <v>15</v>
       </c>
-      <c r="AC6" s="44">
+      <c r="AC6" s="42">
         <f>SUM(Y6:AB6)</f>
         <v>1310</v>
       </c>
-      <c r="AD6" s="43">
+      <c r="AD6" s="41">
         <v>52</v>
       </c>
-      <c r="AE6" s="43">
+      <c r="AE6" s="41">
         <v>69</v>
       </c>
-      <c r="AF6" s="43">
+      <c r="AF6" s="41">
         <v>68</v>
       </c>
-      <c r="AG6" s="43">
+      <c r="AG6" s="41">
         <v>25</v>
       </c>
-      <c r="AH6" s="43">
+      <c r="AH6" s="41">
         <v>12</v>
       </c>
-      <c r="AI6" s="43">
+      <c r="AI6" s="41">
         <v>5</v>
       </c>
-      <c r="AJ6" s="43">
+      <c r="AJ6" s="41">
         <f>SUM(AD6:AI6)</f>
         <v>231</v>
       </c>
-      <c r="AK6" s="43">
+      <c r="AK6" s="41">
         <v>42</v>
       </c>
-      <c r="AL6" s="43">
+      <c r="AL6" s="41">
         <v>59</v>
       </c>
-      <c r="AM6" s="43">
+      <c r="AM6" s="41">
         <v>58</v>
       </c>
-      <c r="AN6" s="43">
+      <c r="AN6" s="41">
         <v>15</v>
       </c>
-      <c r="AO6" s="43">
+      <c r="AO6" s="41">
         <v>2</v>
       </c>
-      <c r="AP6" s="43">
+      <c r="AP6" s="41">
         <v>0.5</v>
       </c>
-      <c r="AQ6" s="43">
+      <c r="AQ6" s="41">
         <f>SUM(AK6:AP6)</f>
         <v>176.5</v>
       </c>
-      <c r="AR6" s="45">
+      <c r="AR6" s="43">
         <v>56</v>
       </c>
-      <c r="AS6" s="44">
+      <c r="AS6" s="42">
         <v>52</v>
       </c>
-      <c r="AT6" s="44">
+      <c r="AT6" s="42">
         <v>45</v>
       </c>
-      <c r="AU6" s="44">
+      <c r="AU6" s="42">
         <v>52</v>
       </c>
-      <c r="AV6" s="44">
+      <c r="AV6" s="42">
         <v>5890</v>
       </c>
-      <c r="AW6" s="43">
+      <c r="AW6" s="41">
         <v>2589</v>
       </c>
-      <c r="AX6" s="43">
+      <c r="AX6" s="41">
         <v>2689</v>
       </c>
-      <c r="AY6" s="44">
+      <c r="AY6" s="42">
         <v>5200</v>
       </c>
-      <c r="AZ6" s="44">
+      <c r="AZ6" s="42">
         <v>6890</v>
       </c>
-      <c r="BA6" s="44">
+      <c r="BA6" s="42">
         <v>69874</v>
       </c>
-      <c r="BB6" s="44">
+      <c r="BB6" s="42">
         <v>3200</v>
       </c>
-      <c r="BC6" s="44">
+      <c r="BC6" s="42">
         <v>3890</v>
       </c>
-      <c r="BD6" s="44">
+      <c r="BD6" s="42">
         <v>65987</v>
       </c>
-      <c r="BE6" s="44">
+      <c r="BE6" s="42">
         <f>SUM(AY6:BD6)</f>
         <v>155041</v>
       </c>
-      <c r="BF6" s="46">
+      <c r="BF6" s="44">
         <v>6985210</v>
       </c>
-      <c r="BG6" s="46">
+      <c r="BG6" s="44">
         <v>4251</v>
       </c>
-      <c r="BH6" s="44">
+      <c r="BH6" s="42">
         <v>5200</v>
       </c>
-      <c r="BI6" s="44">
+      <c r="BI6" s="42">
         <v>6890</v>
       </c>
-      <c r="BJ6" s="44">
+      <c r="BJ6" s="42">
         <v>2586</v>
       </c>
-      <c r="BK6" s="47">
+      <c r="BK6" s="45">
         <v>3200</v>
       </c>
-      <c r="BL6" s="47">
+      <c r="BL6" s="45">
         <v>3890</v>
       </c>
-      <c r="BM6" s="47">
+      <c r="BM6" s="45">
         <v>65987</v>
       </c>
-      <c r="BN6" s="47">
+      <c r="BN6" s="45">
         <f>SUM(BH6:BM6)</f>
         <v>87753</v>
       </c>
-      <c r="BO6" s="48">
+      <c r="BO6" s="46">
         <v>125962</v>
       </c>
-      <c r="BP6" s="49">
+      <c r="BP6" s="47">
         <v>2598</v>
       </c>
-      <c r="BQ6" s="50">
+      <c r="BQ6" s="48">
         <v>80</v>
       </c>
-      <c r="BR6" s="50">
+      <c r="BR6" s="48">
         <v>40</v>
       </c>
-      <c r="BS6" s="51">
+      <c r="BS6" s="49">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:94" s="30" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="136">
+    <row r="7" spans="1:94" s="28" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="94">
         <v>2020</v>
       </c>
-      <c r="B7" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="131">
+      <c r="B7" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="89">
         <v>5250</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="50">
         <v>750</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="50">
         <v>360</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="50">
         <f>SUM(D7:F7)</f>
         <v>6360</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="50">
         <v>5694</v>
       </c>
-      <c r="I7" s="52">
+      <c r="I7" s="50">
         <v>325</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="50">
         <v>198</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="50">
         <f>SUM(H7:J7)</f>
         <v>6217</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="50">
         <v>52</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="50">
         <v>35</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="50">
         <v>7</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="50">
         <f>SUM(L7:N7)</f>
         <v>94</v>
       </c>
-      <c r="P7" s="52">
+      <c r="P7" s="50">
         <v>32</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="50">
         <v>15</v>
       </c>
-      <c r="R7" s="52">
+      <c r="R7" s="50">
         <v>15</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="50">
         <f>SUM(P7:R7)</f>
         <v>62</v>
       </c>
-      <c r="T7" s="53">
+      <c r="T7" s="51">
         <v>358</v>
       </c>
-      <c r="U7" s="53">
+      <c r="U7" s="51">
         <v>590</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="51">
         <v>105</v>
       </c>
-      <c r="W7" s="53">
+      <c r="W7" s="51">
         <v>10</v>
       </c>
-      <c r="X7" s="53">
+      <c r="X7" s="51">
         <f>SUM(T7:W7)</f>
         <v>1063</v>
       </c>
-      <c r="Y7" s="53">
+      <c r="Y7" s="51">
         <v>158</v>
       </c>
-      <c r="Z7" s="53">
+      <c r="Z7" s="51">
         <v>590</v>
       </c>
-      <c r="AA7" s="53">
+      <c r="AA7" s="51">
         <v>105</v>
       </c>
-      <c r="AB7" s="53">
+      <c r="AB7" s="51">
         <v>10</v>
       </c>
-      <c r="AC7" s="53">
+      <c r="AC7" s="51">
         <f>SUM(Y7:AB7)</f>
         <v>863</v>
       </c>
-      <c r="AD7" s="52">
+      <c r="AD7" s="50">
         <v>75</v>
       </c>
-      <c r="AE7" s="52">
+      <c r="AE7" s="50">
         <v>68</v>
       </c>
-      <c r="AF7" s="52">
+      <c r="AF7" s="50">
         <v>84</v>
       </c>
-      <c r="AG7" s="52">
+      <c r="AG7" s="50">
         <v>35</v>
       </c>
-      <c r="AH7" s="52">
+      <c r="AH7" s="50">
         <v>15</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AI7" s="50">
         <v>7</v>
       </c>
-      <c r="AJ7" s="52">
+      <c r="AJ7" s="50">
         <f>SUM(AD7:AI7)</f>
         <v>284</v>
       </c>
-      <c r="AK7" s="52">
+      <c r="AK7" s="50">
         <v>65</v>
       </c>
-      <c r="AL7" s="52">
+      <c r="AL7" s="50">
         <v>48</v>
       </c>
-      <c r="AM7" s="52">
+      <c r="AM7" s="50">
         <v>64</v>
       </c>
-      <c r="AN7" s="52">
+      <c r="AN7" s="50">
         <v>15</v>
       </c>
-      <c r="AO7" s="52">
+      <c r="AO7" s="50">
         <v>5</v>
       </c>
-      <c r="AP7" s="52">
+      <c r="AP7" s="50">
         <v>0.7</v>
       </c>
-      <c r="AQ7" s="52">
+      <c r="AQ7" s="50">
         <f>SUM(AK7:AP7)</f>
         <v>197.7</v>
       </c>
-      <c r="AR7" s="54">
+      <c r="AR7" s="52">
         <v>150</v>
       </c>
-      <c r="AS7" s="53">
+      <c r="AS7" s="51">
         <v>15</v>
       </c>
-      <c r="AT7" s="53">
+      <c r="AT7" s="51">
         <v>48</v>
       </c>
-      <c r="AU7" s="53">
+      <c r="AU7" s="51">
         <v>85</v>
       </c>
-      <c r="AV7" s="53">
+      <c r="AV7" s="51">
         <v>1589</v>
       </c>
-      <c r="AW7" s="52">
+      <c r="AW7" s="50">
         <v>3598</v>
       </c>
-      <c r="AX7" s="52">
+      <c r="AX7" s="50">
         <v>6598</v>
       </c>
-      <c r="AY7" s="53">
+      <c r="AY7" s="51">
         <v>5250</v>
       </c>
-      <c r="AZ7" s="53">
+      <c r="AZ7" s="51">
         <v>7821</v>
       </c>
-      <c r="BA7" s="53">
+      <c r="BA7" s="51">
         <v>56987</v>
       </c>
-      <c r="BB7" s="53">
+      <c r="BB7" s="51">
         <v>4250</v>
       </c>
-      <c r="BC7" s="53">
+      <c r="BC7" s="51">
         <v>4872</v>
       </c>
-      <c r="BD7" s="53">
+      <c r="BD7" s="51">
         <v>25984</v>
       </c>
-      <c r="BE7" s="53">
+      <c r="BE7" s="51">
         <f>SUM(AY7:BD7)</f>
         <v>105164</v>
       </c>
-      <c r="BF7" s="55">
+      <c r="BF7" s="53">
         <v>2659840</v>
       </c>
-      <c r="BG7" s="55">
+      <c r="BG7" s="53">
         <v>4261</v>
       </c>
-      <c r="BH7" s="53">
+      <c r="BH7" s="51">
         <v>5250</v>
       </c>
-      <c r="BI7" s="53">
+      <c r="BI7" s="51">
         <v>7821</v>
       </c>
-      <c r="BJ7" s="53">
+      <c r="BJ7" s="51">
         <v>1254</v>
       </c>
-      <c r="BK7" s="53">
+      <c r="BK7" s="51">
         <v>4250</v>
       </c>
-      <c r="BL7" s="53">
+      <c r="BL7" s="51">
         <v>4872</v>
       </c>
-      <c r="BM7" s="53">
+      <c r="BM7" s="51">
         <v>25984</v>
       </c>
-      <c r="BN7" s="53">
+      <c r="BN7" s="51">
         <f>SUM(BH7:BM7)</f>
         <v>49431</v>
       </c>
-      <c r="BO7" s="56">
+      <c r="BO7" s="54">
         <v>125487</v>
       </c>
-      <c r="BP7" s="57">
+      <c r="BP7" s="55">
         <v>1248</v>
       </c>
-      <c r="BQ7" s="58">
+      <c r="BQ7" s="56">
         <v>90</v>
       </c>
-      <c r="BR7" s="58">
+      <c r="BR7" s="56">
         <v>15</v>
       </c>
-      <c r="BS7" s="59">
+      <c r="BS7" s="57">
         <v>26</v>
       </c>
-      <c r="BT7" s="60"/>
-      <c r="BU7" s="60"/>
-      <c r="BV7" s="60"/>
-      <c r="BW7" s="60"/>
-      <c r="BX7" s="60"/>
-      <c r="BY7" s="60"/>
-      <c r="BZ7" s="60"/>
-      <c r="CA7" s="60"/>
-      <c r="CB7" s="60"/>
-      <c r="CC7" s="60"/>
-      <c r="CD7" s="60"/>
-      <c r="CE7" s="60"/>
-      <c r="CF7" s="60"/>
-      <c r="CG7" s="60"/>
-      <c r="CH7" s="60"/>
-      <c r="CI7" s="60"/>
-      <c r="CJ7" s="60"/>
-      <c r="CK7" s="60"/>
-      <c r="CL7" s="60"/>
-      <c r="CM7" s="60"/>
-      <c r="CN7" s="60"/>
-      <c r="CO7" s="60"/>
-      <c r="CP7" s="60"/>
+      <c r="BT7" s="58"/>
+      <c r="BU7" s="58"/>
+      <c r="BV7" s="58"/>
+      <c r="BW7" s="58"/>
+      <c r="BX7" s="58"/>
+      <c r="BY7" s="58"/>
+      <c r="BZ7" s="58"/>
+      <c r="CA7" s="58"/>
+      <c r="CB7" s="58"/>
+      <c r="CC7" s="58"/>
+      <c r="CD7" s="58"/>
+      <c r="CE7" s="58"/>
+      <c r="CF7" s="58"/>
+      <c r="CG7" s="58"/>
+      <c r="CH7" s="58"/>
+      <c r="CI7" s="58"/>
+      <c r="CJ7" s="58"/>
+      <c r="CK7" s="58"/>
+      <c r="CL7" s="58"/>
+      <c r="CM7" s="58"/>
+      <c r="CN7" s="58"/>
+      <c r="CO7" s="58"/>
+      <c r="CP7" s="58"/>
     </row>
     <row r="8" spans="1:94" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="137">
+      <c r="A8" s="95">
         <v>2021</v>
       </c>
-      <c r="B8" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="128">
+      <c r="B8" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="87">
         <v>4800</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="59">
         <v>695</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="59">
         <v>581</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="60">
         <f>SUM(D8:F8)</f>
         <v>6076</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="59">
         <v>489</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="59">
         <v>365</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="59">
         <v>250</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="60">
         <f>SUM(H8:J8)</f>
         <v>1104</v>
       </c>
-      <c r="L8" s="63">
+      <c r="L8" s="61">
         <v>50</v>
       </c>
-      <c r="M8" s="63">
+      <c r="M8" s="61">
         <v>30</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="61">
         <v>7</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="60">
         <f>SUM(L8:N8)</f>
         <v>87</v>
       </c>
-      <c r="P8" s="63">
+      <c r="P8" s="61">
         <v>30</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="Q8" s="61">
         <v>10</v>
       </c>
-      <c r="R8" s="63">
+      <c r="R8" s="61">
         <v>12</v>
       </c>
-      <c r="S8" s="62">
+      <c r="S8" s="60">
         <f>SUM(P8:R8)</f>
         <v>52</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="62">
         <v>589</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="62">
         <v>620</v>
       </c>
-      <c r="V8" s="64">
+      <c r="V8" s="62">
         <v>154</v>
       </c>
-      <c r="W8" s="64">
+      <c r="W8" s="62">
         <v>41</v>
       </c>
-      <c r="X8" s="47">
+      <c r="X8" s="45">
         <f>SUM(T8:W8)</f>
         <v>1404</v>
       </c>
-      <c r="Y8" s="64">
+      <c r="Y8" s="62">
         <v>259</v>
       </c>
-      <c r="Z8" s="64">
+      <c r="Z8" s="62">
         <v>620</v>
       </c>
-      <c r="AA8" s="64">
+      <c r="AA8" s="62">
         <v>154</v>
       </c>
-      <c r="AB8" s="64">
+      <c r="AB8" s="62">
         <v>41</v>
       </c>
-      <c r="AC8" s="47">
+      <c r="AC8" s="45">
         <f>SUM(Y8:AB8)</f>
         <v>1074</v>
       </c>
-      <c r="AD8" s="63">
+      <c r="AD8" s="61">
         <v>82</v>
       </c>
-      <c r="AE8" s="63">
+      <c r="AE8" s="61">
         <v>78</v>
       </c>
-      <c r="AF8" s="63">
+      <c r="AF8" s="61">
         <v>98</v>
       </c>
-      <c r="AG8" s="63">
+      <c r="AG8" s="61">
         <v>45</v>
       </c>
-      <c r="AH8" s="63">
+      <c r="AH8" s="61">
         <v>18</v>
       </c>
-      <c r="AI8" s="63">
+      <c r="AI8" s="61">
         <v>10</v>
       </c>
-      <c r="AJ8" s="62">
+      <c r="AJ8" s="60">
         <f>SUM(AD8:AI8)</f>
         <v>331</v>
       </c>
-      <c r="AK8" s="63">
+      <c r="AK8" s="61">
         <v>62</v>
       </c>
-      <c r="AL8" s="63">
+      <c r="AL8" s="61">
         <v>68</v>
       </c>
-      <c r="AM8" s="63">
+      <c r="AM8" s="61">
         <v>68</v>
       </c>
-      <c r="AN8" s="63">
+      <c r="AN8" s="61">
         <v>25</v>
       </c>
-      <c r="AO8" s="63">
+      <c r="AO8" s="61">
         <v>8</v>
       </c>
-      <c r="AP8" s="63">
+      <c r="AP8" s="61">
         <v>0.5</v>
       </c>
-      <c r="AQ8" s="63">
+      <c r="AQ8" s="61">
         <f>SUM(AK8:AP8)</f>
         <v>231.5</v>
       </c>
-      <c r="AR8" s="65">
+      <c r="AR8" s="63">
         <v>158</v>
       </c>
-      <c r="AS8" s="64">
+      <c r="AS8" s="62">
         <v>159</v>
       </c>
-      <c r="AT8" s="64">
+      <c r="AT8" s="62">
         <v>435</v>
       </c>
-      <c r="AU8" s="64">
+      <c r="AU8" s="62">
         <v>487</v>
       </c>
-      <c r="AV8" s="64">
+      <c r="AV8" s="62">
         <v>1578</v>
       </c>
-      <c r="AW8" s="62">
+      <c r="AW8" s="60">
         <v>5896</v>
       </c>
-      <c r="AX8" s="63">
+      <c r="AX8" s="61">
         <v>3657</v>
       </c>
-      <c r="AY8" s="64">
+      <c r="AY8" s="62">
         <v>6895</v>
       </c>
-      <c r="AZ8" s="64">
+      <c r="AZ8" s="62">
         <v>5621</v>
       </c>
-      <c r="BA8" s="64">
+      <c r="BA8" s="62">
         <v>65231</v>
       </c>
-      <c r="BB8" s="64">
+      <c r="BB8" s="62">
         <v>5987</v>
       </c>
-      <c r="BC8" s="64">
+      <c r="BC8" s="62">
         <v>6598</v>
       </c>
-      <c r="BD8" s="64">
+      <c r="BD8" s="62">
         <v>26591</v>
       </c>
-      <c r="BE8" s="47">
+      <c r="BE8" s="45">
         <f>SUM(AY8:BD8)</f>
         <v>116923</v>
       </c>
-      <c r="BF8" s="66">
+      <c r="BF8" s="64">
         <v>3659840</v>
       </c>
-      <c r="BG8" s="66">
+      <c r="BG8" s="64">
         <v>3265</v>
       </c>
-      <c r="BH8" s="64">
+      <c r="BH8" s="62">
         <v>6895</v>
       </c>
-      <c r="BI8" s="64">
+      <c r="BI8" s="62">
         <v>5621</v>
       </c>
-      <c r="BJ8" s="64">
+      <c r="BJ8" s="62">
         <v>1364</v>
       </c>
-      <c r="BK8" s="64">
+      <c r="BK8" s="62">
         <v>5987</v>
       </c>
-      <c r="BL8" s="64">
+      <c r="BL8" s="62">
         <v>6598</v>
       </c>
-      <c r="BM8" s="64">
+      <c r="BM8" s="62">
         <v>26591</v>
       </c>
-      <c r="BN8" s="47">
+      <c r="BN8" s="45">
         <f>SUM(BH8:BM8)</f>
         <v>53056</v>
       </c>
-      <c r="BO8" s="67">
+      <c r="BO8" s="65">
         <v>52014</v>
       </c>
-      <c r="BP8" s="68">
+      <c r="BP8" s="66">
         <v>3569</v>
       </c>
-      <c r="BQ8" s="63">
+      <c r="BQ8" s="61">
         <v>58</v>
       </c>
-      <c r="BR8" s="63">
+      <c r="BR8" s="61">
         <v>64</v>
       </c>
-      <c r="BS8" s="69">
+      <c r="BS8" s="67">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:94" s="80" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="138">
+    <row r="9" spans="1:94" s="78" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="96">
         <v>2022</v>
       </c>
-      <c r="B9" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="132">
+      <c r="B9" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="90">
         <v>2500</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <v>200</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="68">
         <v>85</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="69">
         <f>SUM(D9:F9)</f>
         <v>2785</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="68">
         <v>95</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="68">
         <v>74</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="68">
         <v>87</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="69">
         <f>SUM(H9:J9)</f>
         <v>256</v>
       </c>
-      <c r="L9" s="72">
+      <c r="L9" s="70">
         <v>15</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="70">
         <v>8</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="70">
         <v>0.5</v>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="69">
         <f>SUM(L9:N9)</f>
         <v>23.5</v>
       </c>
-      <c r="P9" s="72">
+      <c r="P9" s="70">
         <v>5</v>
       </c>
-      <c r="Q9" s="72">
+      <c r="Q9" s="70">
         <v>8</v>
       </c>
-      <c r="R9" s="72">
+      <c r="R9" s="70">
         <v>0.5</v>
       </c>
-      <c r="S9" s="71">
+      <c r="S9" s="69">
         <f>SUM(P9:R9)</f>
         <v>13.5</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="71">
         <v>215</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="71">
         <v>158</v>
       </c>
-      <c r="V9" s="73">
+      <c r="V9" s="71">
         <v>85</v>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="71">
         <v>2.5</v>
       </c>
-      <c r="X9" s="74">
+      <c r="X9" s="72">
         <f>SUM(T9:W9)</f>
         <v>460.5</v>
       </c>
-      <c r="Y9" s="73">
+      <c r="Y9" s="71">
         <v>105</v>
       </c>
-      <c r="Z9" s="73">
+      <c r="Z9" s="71">
         <v>158</v>
       </c>
-      <c r="AA9" s="73">
+      <c r="AA9" s="71">
         <v>85</v>
       </c>
-      <c r="AB9" s="73">
+      <c r="AB9" s="71">
         <v>2.5</v>
       </c>
-      <c r="AC9" s="74">
+      <c r="AC9" s="72">
         <f>SUM(Y9:AB9)</f>
         <v>350.5</v>
       </c>
-      <c r="AD9" s="72">
+      <c r="AD9" s="70">
         <v>32</v>
       </c>
-      <c r="AE9" s="72">
+      <c r="AE9" s="70">
         <v>48</v>
       </c>
-      <c r="AF9" s="72">
+      <c r="AF9" s="70">
         <v>56</v>
       </c>
-      <c r="AG9" s="72">
+      <c r="AG9" s="70">
         <v>35</v>
       </c>
-      <c r="AH9" s="72">
+      <c r="AH9" s="70">
         <v>14</v>
       </c>
-      <c r="AI9" s="72">
+      <c r="AI9" s="70">
         <v>6</v>
       </c>
-      <c r="AJ9" s="71">
+      <c r="AJ9" s="69">
         <f>SUM(AD9:AI9)</f>
         <v>191</v>
       </c>
-      <c r="AK9" s="72">
+      <c r="AK9" s="70">
         <v>12</v>
       </c>
-      <c r="AL9" s="72">
+      <c r="AL9" s="70">
         <v>35</v>
       </c>
-      <c r="AM9" s="72">
+      <c r="AM9" s="70">
         <v>58</v>
       </c>
-      <c r="AN9" s="72">
+      <c r="AN9" s="70">
         <v>36</v>
       </c>
-      <c r="AO9" s="72">
+      <c r="AO9" s="70">
         <v>14</v>
       </c>
-      <c r="AP9" s="72">
+      <c r="AP9" s="70">
         <v>23</v>
       </c>
-      <c r="AQ9" s="75">
+      <c r="AQ9" s="73">
         <f>SUM(AK9:AP9)</f>
         <v>178</v>
       </c>
-      <c r="AR9" s="76">
+      <c r="AR9" s="74">
         <v>54</v>
       </c>
-      <c r="AS9" s="73">
+      <c r="AS9" s="71">
         <v>158</v>
       </c>
-      <c r="AT9" s="73">
+      <c r="AT9" s="71">
         <v>48</v>
       </c>
-      <c r="AU9" s="73">
+      <c r="AU9" s="71">
         <v>153</v>
       </c>
-      <c r="AV9" s="73">
+      <c r="AV9" s="71">
         <v>3598</v>
       </c>
-      <c r="AW9" s="71">
+      <c r="AW9" s="69">
         <v>3264</v>
       </c>
-      <c r="AX9" s="72">
+      <c r="AX9" s="70">
         <v>1587</v>
       </c>
-      <c r="AY9" s="73">
+      <c r="AY9" s="71">
         <v>5682</v>
       </c>
-      <c r="AZ9" s="73">
+      <c r="AZ9" s="71">
         <v>4582</v>
       </c>
-      <c r="BA9" s="73">
+      <c r="BA9" s="71">
         <v>45281</v>
       </c>
-      <c r="BB9" s="73">
+      <c r="BB9" s="71">
         <v>2598</v>
       </c>
-      <c r="BC9" s="73">
+      <c r="BC9" s="71">
         <v>2364</v>
       </c>
-      <c r="BD9" s="73">
+      <c r="BD9" s="71">
         <v>25621</v>
       </c>
-      <c r="BE9" s="74">
+      <c r="BE9" s="72">
         <f>SUM(AY9:BD9)</f>
         <v>86128</v>
       </c>
-      <c r="BF9" s="77">
+      <c r="BF9" s="75">
         <v>3695210</v>
       </c>
-      <c r="BG9" s="77">
+      <c r="BG9" s="75">
         <v>1254</v>
       </c>
-      <c r="BH9" s="73">
+      <c r="BH9" s="71">
         <v>5682</v>
       </c>
-      <c r="BI9" s="73">
+      <c r="BI9" s="71">
         <v>4582</v>
       </c>
-      <c r="BJ9" s="73">
+      <c r="BJ9" s="71">
         <v>7582</v>
       </c>
-      <c r="BK9" s="73">
+      <c r="BK9" s="71">
         <v>2598</v>
       </c>
-      <c r="BL9" s="73">
+      <c r="BL9" s="71">
         <v>2364</v>
       </c>
-      <c r="BM9" s="73">
+      <c r="BM9" s="71">
         <v>25621</v>
       </c>
-      <c r="BN9" s="74">
+      <c r="BN9" s="72">
         <f>SUM(BH9:BM9)</f>
         <v>48429</v>
       </c>
-      <c r="BO9" s="78">
+      <c r="BO9" s="76">
         <v>25361</v>
       </c>
-      <c r="BP9" s="75">
+      <c r="BP9" s="73">
         <v>6584</v>
       </c>
-      <c r="BQ9" s="72">
+      <c r="BQ9" s="70">
         <v>89</v>
       </c>
-      <c r="BR9" s="72">
+      <c r="BR9" s="70">
         <v>47</v>
       </c>
-      <c r="BS9" s="79">
+      <c r="BS9" s="77">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="T10" s="82">
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="T10" s="80">
         <v>2019</v>
       </c>
     </row>
     <row r="11" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:94" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="AG13" s="83"/>
+      <c r="AG13" s="81"/>
     </row>
     <row r="14" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="L14" s="83"/>
-      <c r="X14" s="82" t="s">
+      <c r="L14" s="81"/>
+      <c r="X14" s="80" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="X15" s="82">
+      <c r="X15" s="80">
         <v>2019</v>
       </c>
-      <c r="AG15" s="83"/>
+      <c r="AG15" s="81"/>
     </row>
     <row r="16" spans="1:94" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="T16" s="84"/>
-      <c r="AG16" s="83"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="T16" s="82"/>
+      <c r="AG16" s="81"/>
     </row>
     <row r="17" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG17" s="83"/>
+      <c r="AG17" s="81"/>
     </row>
     <row r="18" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG18" s="83"/>
+      <c r="AG18" s="81"/>
     </row>
     <row r="19" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG19" s="83"/>
+      <c r="AG19" s="81"/>
     </row>
     <row r="20" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG20" s="83"/>
+      <c r="AG20" s="81"/>
     </row>
     <row r="21" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG21" s="82" t="s">
+      <c r="AG21" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG23" s="82" t="s">
+      <c r="AG23" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG24" s="84"/>
+      <c r="AG24" s="82"/>
     </row>
     <row r="25" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG25" s="84"/>
+      <c r="AG25" s="82"/>
     </row>
     <row r="26" spans="33:33" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG26" s="84"/>
+      <c r="AG26" s="82"/>
     </row>
     <row r="27" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG27" s="84"/>
+      <c r="AG27" s="82"/>
     </row>
     <row r="28" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG28" s="82" t="s">
+      <c r="AG28" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG29" s="83">
+      <c r="AG29" s="81">
         <v>2589</v>
       </c>
     </row>
     <row r="30" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG30" s="83">
+      <c r="AG30" s="81">
         <v>2689</v>
       </c>
     </row>
     <row r="31" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG31" s="82" t="s">
+      <c r="AG31" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="32" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG32" s="82">
+      <c r="AG32" s="80">
         <v>2019</v>
       </c>
     </row>
     <row r="33" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG33" s="84">
+      <c r="AG33" s="82">
         <v>5200</v>
       </c>
     </row>
     <row r="34" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG34" s="84">
+      <c r="AG34" s="82">
         <v>6890</v>
       </c>
     </row>
     <row r="35" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG35" s="84">
+      <c r="AG35" s="82">
         <v>69874</v>
       </c>
     </row>
     <row r="36" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG36" s="84"/>
+      <c r="AG36" s="82"/>
     </row>
     <row r="37" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG37" s="84">
+      <c r="AG37" s="82">
         <v>3200</v>
       </c>
     </row>
     <row r="38" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG38" s="84">
+      <c r="AG38" s="82">
         <v>3890</v>
       </c>
     </row>
     <row r="39" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG39" s="84">
+      <c r="AG39" s="82">
         <v>65987</v>
       </c>
     </row>
     <row r="40" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG40" s="84">
+      <c r="AG40" s="82">
         <f>SUM(AG33:AG39)</f>
         <v>155041</v>
       </c>
     </row>
     <row r="41" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG41" s="82" t="s">
+      <c r="AG41" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG42" s="85">
+      <c r="AG42" s="83">
         <v>6985210</v>
       </c>
     </row>
     <row r="43" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG43" s="85">
+      <c r="AG43" s="83">
         <v>4251</v>
       </c>
     </row>
     <row r="44" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG44" s="82" t="s">
+      <c r="AG44" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="45" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG45" s="82">
+      <c r="AG45" s="80">
         <v>2019</v>
       </c>
     </row>
     <row r="46" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG46" s="84">
+      <c r="AG46" s="82">
         <v>5200</v>
       </c>
     </row>
     <row r="47" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG47" s="84">
+      <c r="AG47" s="82">
         <v>6890</v>
       </c>
     </row>
     <row r="48" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG48" s="84">
+      <c r="AG48" s="82">
         <v>2586</v>
       </c>
     </row>
     <row r="49" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG49" s="84"/>
+      <c r="AG49" s="82"/>
     </row>
     <row r="50" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG50" s="84">
+      <c r="AG50" s="82">
         <v>3200</v>
       </c>
     </row>
     <row r="51" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG51" s="84">
+      <c r="AG51" s="82">
         <v>3890</v>
       </c>
     </row>
     <row r="52" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG52" s="84">
+      <c r="AG52" s="82">
         <v>65987</v>
       </c>
     </row>
     <row r="53" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG53" s="84">
+      <c r="AG53" s="82">
         <f>SUM(AG46:AG52)</f>
         <v>87753</v>
       </c>
     </row>
     <row r="54" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG54" s="82" t="s">
+      <c r="AG54" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="55" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG55" s="86">
+      <c r="AG55" s="84">
         <v>125962</v>
       </c>
     </row>
     <row r="56" spans="33:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG56" s="60">
+      <c r="AG56" s="58">
         <v>2598</v>
       </c>
     </row>
     <row r="57" spans="33:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG57" s="82" t="s">
+      <c r="AG57" s="80" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG58" s="87">
+      <c r="AG58" s="85">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG59" s="87">
+      <c r="AG59" s="85">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="33:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AG60" s="87">
+      <c r="AG60" s="85">
         <v>20</v>
       </c>
     </row>
@@ -6093,37 +6046,37 @@
     <row r="73" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA75" s="81" t="s">
+      <c r="BA75" s="79" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA76" s="88" t="s">
+      <c r="BA76" s="86" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="77" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA77" s="88" t="s">
+      <c r="BA77" s="86" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="78" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA78" s="81" t="s">
+      <c r="BA78" s="79" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="53:53" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA79" s="88" t="s">
+      <c r="BA79" s="86" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA80" s="88" t="s">
+      <c r="BA80" s="86" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="81" spans="53:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="BA81" s="88" t="s">
+      <c r="BA81" s="86" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7026,17 +6979,6 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:K3"/>
-    <mergeCell ref="L1:S3"/>
-    <mergeCell ref="T1:AC3"/>
-    <mergeCell ref="AD1:AQ3"/>
-    <mergeCell ref="AR1:AR4"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:C5"/>
     <mergeCell ref="BQ1:BS4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:K4"/>
@@ -7053,6 +6995,17 @@
     <mergeCell ref="BF1:BG4"/>
     <mergeCell ref="BH1:BN3"/>
     <mergeCell ref="BO1:BP4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:K3"/>
+    <mergeCell ref="L1:S3"/>
+    <mergeCell ref="T1:AC3"/>
+    <mergeCell ref="AD1:AQ3"/>
+    <mergeCell ref="AR1:AR4"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -7070,7 +7023,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
@@ -7080,7 +7033,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7094,264 +7047,264 @@
       <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>69</v>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>92</v>
+      <c r="B2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E2">
         <v>59</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>80</v>
+      <c r="F2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>92</v>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>80</v>
+      <c r="F3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>111</v>
+      <c r="B4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E4">
         <v>42</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>81</v>
+      <c r="F4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>111</v>
+      <c r="B5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E5">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>81</v>
+      <c r="F5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>111</v>
+      <c r="C6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E6">
         <v>31</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>96</v>
+      <c r="F6" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>111</v>
+      <c r="C7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>83</v>
+      <c r="F7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>92</v>
+      <c r="B8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>83</v>
+      <c r="F8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>92</v>
+      <c r="B9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>80</v>
+      <c r="F9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>92</v>
+      <c r="B10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E10">
         <v>39</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>97</v>
+      <c r="F10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>111</v>
+      <c r="B11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E11">
         <v>38</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>79</v>
+      <c r="F11" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>111</v>
+      <c r="B12" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="E12">
         <v>36</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>98</v>
+      <c r="F12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8361,52 +8314,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>115</v>
+      <c r="C2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="F2">
         <v>5.6</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>116</v>
+      <c r="G2" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8416,20 +8369,20 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="C3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>121</v>
+      <c r="G3" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8439,43 +8392,43 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="13">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="14">
-        <v>28</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2021</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8485,20 +8438,20 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="16">
+      <c r="E6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="15">
         <v>6.1</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>116</v>
+      <c r="G6" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8508,43 +8461,43 @@
       <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>131</v>
+      <c r="C7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="C8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="14">
         <v>5.8</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>116</v>
+      <c r="G8" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8554,20 +8507,20 @@
       <c r="B9" s="4">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="C9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="14">
         <v>25</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>130</v>
+      <c r="G9" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/PLANTILLAS APLICATIVO/AES.xlsx
+++ b/PLANTILLAS APLICATIVO/AES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48202D3-6BBE-40FA-AAEA-878ECB1C82B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F654C75-0CF3-430F-B5EB-66DAD8C8A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
   <si>
     <t>AÑO</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>EDAD</t>
-  </si>
-  <si>
-    <t>PROYECTO</t>
   </si>
   <si>
     <t>LUGAR DE NACIMIENTO</t>
@@ -1465,6 +1462,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1474,6 +1508,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,36 +1544,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,34 +1583,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares 2" xfId="3" xr:uid="{30928C5B-BF08-40B3-928F-662A4EF87AFA}"/>
@@ -1804,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1003"/>
+  <dimension ref="A1:I1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
@@ -1842,13 +1839,13 @@
         <v>2022</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>13</v>
@@ -1859,13 +1856,13 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>21</v>
@@ -1876,31 +1873,31 @@
         <v>2022</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="139"/>
+      <c r="I4" s="99"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1911,13 +1908,13 @@
         <v>2022</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -1928,13 +1925,13 @@
         <v>2022</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -1945,13 +1942,13 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -1962,13 +1959,13 @@
         <v>2022</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1979,13 +1976,13 @@
         <v>2022</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
@@ -1996,13 +1993,13 @@
         <v>2022</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2013,13 +2010,13 @@
         <v>2022</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>149</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>150</v>
       </c>
       <c r="E12" s="20">
         <v>22</v>
@@ -2030,11 +2027,11 @@
         <v>2022</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="21"/>
     </row>
@@ -2043,11 +2040,11 @@
         <v>2022</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="21"/>
     </row>
@@ -2056,11 +2053,11 @@
         <v>2022</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E15" s="21"/>
     </row>
@@ -2069,13 +2066,13 @@
         <v>2022</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>158</v>
       </c>
       <c r="E16" s="22">
         <v>5</v>
@@ -3085,14 +3082,10 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="16" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="12" max="26" width="10.6640625" customWidth="1"/>
+    <col min="6" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3108,187 +3101,172 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2019</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="10">
         <v>150000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="10">
         <v>750000000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="10">
         <v>85000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2020</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="10">
         <v>120000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2020</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="10">
         <v>92560000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2020</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="10">
         <v>250000000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="10">
         <v>958625120</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="10">
         <v>56956250</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="10">
         <v>65326980</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="10">
         <v>23598540</v>
@@ -4322,353 +4300,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="110" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="108" t="s">
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="118" t="s">
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
-      <c r="AA1" s="119"/>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="118" t="s">
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="119"/>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="119"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="119"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="127" t="s">
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="129"/>
+      <c r="AM1" s="129"/>
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="129"/>
+      <c r="AQ1" s="130"/>
+      <c r="AR1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="108" t="s">
+      <c r="AS1" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="108" t="s">
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="101"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="108" t="s">
+      <c r="AX1" s="102"/>
+      <c r="AY1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="114"/>
-      <c r="BF1" s="108" t="s">
+      <c r="AZ1" s="101"/>
+      <c r="BA1" s="101"/>
+      <c r="BB1" s="101"/>
+      <c r="BC1" s="101"/>
+      <c r="BD1" s="101"/>
+      <c r="BE1" s="102"/>
+      <c r="BF1" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="114"/>
-      <c r="BH1" s="108" t="s">
+      <c r="BG1" s="102"/>
+      <c r="BH1" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="114"/>
-      <c r="BO1" s="108" t="s">
+      <c r="BI1" s="101"/>
+      <c r="BJ1" s="101"/>
+      <c r="BK1" s="101"/>
+      <c r="BL1" s="101"/>
+      <c r="BM1" s="101"/>
+      <c r="BN1" s="102"/>
+      <c r="BO1" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="114"/>
-      <c r="BQ1" s="108" t="s">
+      <c r="BP1" s="102"/>
+      <c r="BQ1" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="110"/>
-      <c r="BS1" s="114"/>
+      <c r="BR1" s="101"/>
+      <c r="BS1" s="102"/>
     </row>
     <row r="2" spans="1:94" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="109"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="122"/>
-      <c r="AL2" s="122"/>
-      <c r="AM2" s="122"/>
-      <c r="AN2" s="122"/>
-      <c r="AO2" s="122"/>
-      <c r="AP2" s="122"/>
-      <c r="AQ2" s="123"/>
-      <c r="AR2" s="128"/>
-      <c r="AS2" s="109"/>
-      <c r="AT2" s="112"/>
-      <c r="AU2" s="112"/>
-      <c r="AV2" s="115"/>
-      <c r="AW2" s="109"/>
-      <c r="AX2" s="115"/>
-      <c r="AY2" s="109"/>
-      <c r="AZ2" s="112"/>
-      <c r="BA2" s="112"/>
-      <c r="BB2" s="112"/>
-      <c r="BC2" s="112"/>
-      <c r="BD2" s="112"/>
-      <c r="BE2" s="115"/>
-      <c r="BF2" s="109"/>
-      <c r="BG2" s="115"/>
-      <c r="BH2" s="109"/>
-      <c r="BI2" s="112"/>
-      <c r="BJ2" s="112"/>
-      <c r="BK2" s="112"/>
-      <c r="BL2" s="112"/>
-      <c r="BM2" s="112"/>
-      <c r="BN2" s="115"/>
-      <c r="BO2" s="109"/>
-      <c r="BP2" s="115"/>
-      <c r="BQ2" s="109"/>
-      <c r="BR2" s="112"/>
-      <c r="BS2" s="115"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="132"/>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="103"/>
+      <c r="AT2" s="104"/>
+      <c r="AU2" s="104"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="105"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="104"/>
+      <c r="BB2" s="104"/>
+      <c r="BC2" s="104"/>
+      <c r="BD2" s="104"/>
+      <c r="BE2" s="105"/>
+      <c r="BF2" s="103"/>
+      <c r="BG2" s="105"/>
+      <c r="BH2" s="103"/>
+      <c r="BI2" s="104"/>
+      <c r="BJ2" s="104"/>
+      <c r="BK2" s="104"/>
+      <c r="BL2" s="104"/>
+      <c r="BM2" s="104"/>
+      <c r="BN2" s="105"/>
+      <c r="BO2" s="103"/>
+      <c r="BP2" s="105"/>
+      <c r="BQ2" s="103"/>
+      <c r="BR2" s="104"/>
+      <c r="BS2" s="105"/>
     </row>
     <row r="3" spans="1:94" s="28" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="109"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="125"/>
-      <c r="AJ3" s="125"/>
-      <c r="AK3" s="125"/>
-      <c r="AL3" s="125"/>
-      <c r="AM3" s="125"/>
-      <c r="AN3" s="125"/>
-      <c r="AO3" s="125"/>
-      <c r="AP3" s="125"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="128"/>
-      <c r="AS3" s="109"/>
-      <c r="AT3" s="112"/>
-      <c r="AU3" s="112"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="109"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="113"/>
-      <c r="BA3" s="113"/>
-      <c r="BB3" s="113"/>
-      <c r="BC3" s="113"/>
-      <c r="BD3" s="113"/>
-      <c r="BE3" s="117"/>
-      <c r="BF3" s="109"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="116"/>
-      <c r="BI3" s="113"/>
-      <c r="BJ3" s="113"/>
-      <c r="BK3" s="113"/>
-      <c r="BL3" s="113"/>
-      <c r="BM3" s="113"/>
-      <c r="BN3" s="117"/>
-      <c r="BO3" s="109"/>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="109"/>
-      <c r="BR3" s="112"/>
-      <c r="BS3" s="115"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135"/>
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="104"/>
+      <c r="AU3" s="104"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="106"/>
+      <c r="AZ3" s="107"/>
+      <c r="BA3" s="107"/>
+      <c r="BB3" s="107"/>
+      <c r="BC3" s="107"/>
+      <c r="BD3" s="107"/>
+      <c r="BE3" s="108"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="105"/>
+      <c r="BH3" s="106"/>
+      <c r="BI3" s="107"/>
+      <c r="BJ3" s="107"/>
+      <c r="BK3" s="107"/>
+      <c r="BL3" s="107"/>
+      <c r="BM3" s="107"/>
+      <c r="BN3" s="108"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="105"/>
+      <c r="BQ3" s="103"/>
+      <c r="BR3" s="104"/>
+      <c r="BS3" s="105"/>
     </row>
     <row r="4" spans="1:94" s="28" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="109"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="130" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="99" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="99" t="s">
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="99" t="s">
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="133" t="s">
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="99" t="s">
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="99" t="s">
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="129"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="113"/>
-      <c r="AU4" s="113"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="116"/>
-      <c r="AX4" s="117"/>
-      <c r="AY4" s="136" t="s">
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="113"/>
+      <c r="AR4" s="139"/>
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="137"/>
-      <c r="BA4" s="138"/>
-      <c r="BB4" s="99" t="s">
+      <c r="AZ4" s="119"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="BC4" s="100"/>
-      <c r="BD4" s="100"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="117"/>
-      <c r="BH4" s="102" t="s">
+      <c r="BC4" s="113"/>
+      <c r="BD4" s="113"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="106"/>
+      <c r="BG4" s="108"/>
+      <c r="BH4" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="BI4" s="103"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="105" t="s">
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="BL4" s="106"/>
-      <c r="BM4" s="106"/>
-      <c r="BN4" s="107"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="117"/>
-      <c r="BQ4" s="116"/>
-      <c r="BR4" s="113"/>
-      <c r="BS4" s="117"/>
+      <c r="BL4" s="125"/>
+      <c r="BM4" s="125"/>
+      <c r="BN4" s="126"/>
+      <c r="BO4" s="106"/>
+      <c r="BP4" s="108"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="107"/>
+      <c r="BS4" s="108"/>
     </row>
     <row r="5" spans="1:94" s="28" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="109"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="117"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
@@ -4679,7 +4657,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>11</v>
@@ -4879,10 +4857,10 @@
         <v>2019</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="88">
         <v>5200</v>
@@ -5104,10 +5082,10 @@
         <v>2020</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" s="89">
         <v>5250</v>
@@ -5352,10 +5330,10 @@
         <v>2021</v>
       </c>
       <c r="B8" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="87">
         <v>4800</v>
@@ -5577,10 +5555,10 @@
         <v>2022</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" s="90">
         <v>2500</v>
@@ -6979,6 +6957,17 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:K3"/>
+    <mergeCell ref="L1:S3"/>
+    <mergeCell ref="T1:AC3"/>
+    <mergeCell ref="AD1:AQ3"/>
+    <mergeCell ref="AR1:AR4"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
     <mergeCell ref="BQ1:BS4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:K4"/>
@@ -6995,17 +6984,6 @@
     <mergeCell ref="BF1:BG4"/>
     <mergeCell ref="BH1:BN3"/>
     <mergeCell ref="BO1:BP4"/>
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:K3"/>
-    <mergeCell ref="L1:S3"/>
-    <mergeCell ref="T1:AC3"/>
-    <mergeCell ref="AD1:AQ3"/>
-    <mergeCell ref="AR1:AR4"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -7033,7 +7011,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7048,10 +7026,10 @@
         <v>63</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7059,22 +7037,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E2">
         <v>59</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7082,22 +7060,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7105,22 +7083,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7128,22 +7106,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5">
         <v>32</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7151,22 +7129,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7174,22 +7152,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7197,22 +7175,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7220,22 +7198,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7243,22 +7221,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="E10">
         <v>39</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7266,22 +7244,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7289,22 +7267,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>107</v>
       </c>
       <c r="E12">
         <v>36</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8298,7 +8276,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8315,25 +8293,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -8347,19 +8325,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2">
         <v>5.6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8370,19 +8348,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="F3" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8393,19 +8371,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="F4" s="13">
         <v>28</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8416,19 +8394,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="G5" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8439,19 +8417,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="15">
         <v>6.1</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8462,19 +8440,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>115</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8485,19 +8463,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="14">
         <v>5.8</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8508,19 +8486,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="14">
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/PLANTILLAS APLICATIVO/AES.xlsx
+++ b/PLANTILLAS APLICATIVO/AES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan1\Desktop\GEVOLUCIONA\C-STAR\excel\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F654C75-0CF3-430F-B5EB-66DAD8C8A873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54D37C5-66C1-466D-AAF6-0717DF903F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedor" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="148">
   <si>
     <t>AÑO</t>
   </si>
@@ -377,9 +377,6 @@
     <t>TOTAL AÑO</t>
   </si>
   <si>
-    <t>LUIS CASAS</t>
-  </si>
-  <si>
     <t>INDEFINIDO</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>ESPECIALIZACION</t>
   </si>
   <si>
-    <t xml:space="preserve"> ALBERTO HERANDNEZ</t>
-  </si>
-  <si>
     <t>SECUNDARIA</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>MEDELLIN</t>
   </si>
   <si>
-    <t>LAURA CASAS</t>
-  </si>
-  <si>
     <t>OPS</t>
   </si>
   <si>
@@ -414,30 +405,6 @@
   </si>
   <si>
     <t>LABOR DETERMINADA</t>
-  </si>
-  <si>
-    <t>CRISTINA AGUILAR</t>
-  </si>
-  <si>
-    <t>SOFIA IGUARIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAURA VIDA </t>
-  </si>
-  <si>
-    <t>MILTON TORRES</t>
-  </si>
-  <si>
-    <t>JOSE SEPULVEDA</t>
-  </si>
-  <si>
-    <t>LUIS BUSTOS</t>
-  </si>
-  <si>
-    <t>SILVIA DURAN</t>
-  </si>
-  <si>
-    <t>VIVIANA MARTINEZ</t>
   </si>
   <si>
     <t>FEMENINO</t>
@@ -1463,33 +1430,99 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1499,15 +1532,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1524,63 +1548,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1803,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1839,13 +1806,13 @@
         <v>2022</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2">
         <v>13</v>
@@ -1856,13 +1823,13 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2">
         <v>21</v>
@@ -1873,13 +1840,13 @@
         <v>2022</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1891,13 +1858,13 @@
         <v>2022</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1908,13 +1875,13 @@
         <v>2022</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2">
         <v>4</v>
@@ -1925,13 +1892,13 @@
         <v>2022</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -1942,13 +1909,13 @@
         <v>2022</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2">
         <v>5</v>
@@ -1959,13 +1926,13 @@
         <v>2022</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1976,13 +1943,13 @@
         <v>2022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2">
         <v>23</v>
@@ -1993,13 +1960,13 @@
         <v>2022</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2010,13 +1977,13 @@
         <v>2022</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E12" s="20">
         <v>22</v>
@@ -2027,11 +1994,11 @@
         <v>2022</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E13" s="21"/>
     </row>
@@ -2040,11 +2007,11 @@
         <v>2022</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E14" s="21"/>
     </row>
@@ -2053,11 +2020,11 @@
         <v>2022</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E15" s="21"/>
     </row>
@@ -2066,13 +2033,13 @@
         <v>2022</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E16" s="22">
         <v>5</v>
@@ -3069,10 +3036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3110,7 +3077,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>79</v>
@@ -3127,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>80</v>
@@ -3144,7 +3111,7 @@
         <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>81</v>
@@ -3161,7 +3128,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>82</v>
@@ -3178,7 +3145,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>83</v>
@@ -3195,7 +3162,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>79</v>
@@ -4266,7 +4233,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4300,353 +4267,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" s="28" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="101" t="s">
+      <c r="C1" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="100" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="128" t="s">
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="128" t="s">
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="129"/>
-      <c r="AM1" s="129"/>
-      <c r="AN1" s="129"/>
-      <c r="AO1" s="129"/>
-      <c r="AP1" s="129"/>
-      <c r="AQ1" s="130"/>
-      <c r="AR1" s="137" t="s">
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="100" t="s">
+      <c r="AS1" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="101"/>
-      <c r="AV1" s="102"/>
-      <c r="AW1" s="100" t="s">
+      <c r="AT1" s="111"/>
+      <c r="AU1" s="111"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="102"/>
-      <c r="AY1" s="100" t="s">
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="101"/>
-      <c r="BA1" s="101"/>
-      <c r="BB1" s="101"/>
-      <c r="BC1" s="101"/>
-      <c r="BD1" s="101"/>
-      <c r="BE1" s="102"/>
-      <c r="BF1" s="100" t="s">
+      <c r="AZ1" s="111"/>
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="111"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="102"/>
-      <c r="BH1" s="100" t="s">
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="101"/>
-      <c r="BJ1" s="101"/>
-      <c r="BK1" s="101"/>
-      <c r="BL1" s="101"/>
-      <c r="BM1" s="101"/>
-      <c r="BN1" s="102"/>
-      <c r="BO1" s="100" t="s">
+      <c r="BI1" s="111"/>
+      <c r="BJ1" s="111"/>
+      <c r="BK1" s="111"/>
+      <c r="BL1" s="111"/>
+      <c r="BM1" s="111"/>
+      <c r="BN1" s="115"/>
+      <c r="BO1" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="BP1" s="102"/>
-      <c r="BQ1" s="100" t="s">
+      <c r="BP1" s="115"/>
+      <c r="BQ1" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="BR1" s="101"/>
-      <c r="BS1" s="102"/>
+      <c r="BR1" s="111"/>
+      <c r="BS1" s="115"/>
     </row>
     <row r="2" spans="1:94" s="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="103"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="132"/>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="132"/>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="103"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="105"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="104"/>
-      <c r="BC2" s="104"/>
-      <c r="BD2" s="104"/>
-      <c r="BE2" s="105"/>
-      <c r="BF2" s="103"/>
-      <c r="BG2" s="105"/>
-      <c r="BH2" s="103"/>
-      <c r="BI2" s="104"/>
-      <c r="BJ2" s="104"/>
-      <c r="BK2" s="104"/>
-      <c r="BL2" s="104"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="105"/>
-      <c r="BO2" s="103"/>
-      <c r="BP2" s="105"/>
-      <c r="BQ2" s="103"/>
-      <c r="BR2" s="104"/>
-      <c r="BS2" s="105"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="124"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="123"/>
+      <c r="AO2" s="123"/>
+      <c r="AP2" s="123"/>
+      <c r="AQ2" s="124"/>
+      <c r="AR2" s="129"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="116"/>
+      <c r="AY2" s="110"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+      <c r="BC2" s="113"/>
+      <c r="BD2" s="113"/>
+      <c r="BE2" s="116"/>
+      <c r="BF2" s="110"/>
+      <c r="BG2" s="116"/>
+      <c r="BH2" s="110"/>
+      <c r="BI2" s="113"/>
+      <c r="BJ2" s="113"/>
+      <c r="BK2" s="113"/>
+      <c r="BL2" s="113"/>
+      <c r="BM2" s="113"/>
+      <c r="BN2" s="116"/>
+      <c r="BO2" s="110"/>
+      <c r="BP2" s="116"/>
+      <c r="BQ2" s="110"/>
+      <c r="BR2" s="113"/>
+      <c r="BS2" s="116"/>
     </row>
     <row r="3" spans="1:94" s="28" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="103"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="104"/>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="105"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="105"/>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="107"/>
-      <c r="BA3" s="107"/>
-      <c r="BB3" s="107"/>
-      <c r="BC3" s="107"/>
-      <c r="BD3" s="107"/>
-      <c r="BE3" s="108"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="105"/>
-      <c r="BH3" s="106"/>
-      <c r="BI3" s="107"/>
-      <c r="BJ3" s="107"/>
-      <c r="BK3" s="107"/>
-      <c r="BL3" s="107"/>
-      <c r="BM3" s="107"/>
-      <c r="BN3" s="108"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="105"/>
-      <c r="BQ3" s="103"/>
-      <c r="BR3" s="104"/>
-      <c r="BS3" s="105"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="127"/>
+      <c r="AR3" s="129"/>
+      <c r="AS3" s="110"/>
+      <c r="AT3" s="113"/>
+      <c r="AU3" s="113"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="117"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="118"/>
+      <c r="BF3" s="110"/>
+      <c r="BG3" s="116"/>
+      <c r="BH3" s="117"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="114"/>
+      <c r="BN3" s="118"/>
+      <c r="BO3" s="110"/>
+      <c r="BP3" s="116"/>
+      <c r="BQ3" s="110"/>
+      <c r="BR3" s="113"/>
+      <c r="BS3" s="116"/>
     </row>
     <row r="4" spans="1:94" s="28" customFormat="1" ht="58.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="103"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="109" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110" t="s">
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112" t="s">
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="112" t="s">
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="112" t="s">
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="114"/>
-      <c r="Y4" s="115" t="s">
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="117"/>
-      <c r="AD4" s="112" t="s">
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="113"/>
-      <c r="AF4" s="113"/>
-      <c r="AG4" s="113"/>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="114"/>
-      <c r="AK4" s="112" t="s">
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="113"/>
-      <c r="AM4" s="113"/>
-      <c r="AN4" s="113"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="113"/>
-      <c r="AR4" s="139"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="118" t="s">
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="101"/>
+      <c r="AN4" s="101"/>
+      <c r="AO4" s="101"/>
+      <c r="AP4" s="101"/>
+      <c r="AQ4" s="101"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="118"/>
+      <c r="AY4" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="AZ4" s="119"/>
-      <c r="BA4" s="120"/>
-      <c r="BB4" s="112" t="s">
+      <c r="AZ4" s="138"/>
+      <c r="BA4" s="139"/>
+      <c r="BB4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="BC4" s="113"/>
-      <c r="BD4" s="113"/>
-      <c r="BE4" s="114"/>
-      <c r="BF4" s="106"/>
-      <c r="BG4" s="108"/>
-      <c r="BH4" s="121" t="s">
+      <c r="BC4" s="101"/>
+      <c r="BD4" s="101"/>
+      <c r="BE4" s="102"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="124" t="s">
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="105"/>
+      <c r="BK4" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="BL4" s="125"/>
-      <c r="BM4" s="125"/>
-      <c r="BN4" s="126"/>
-      <c r="BO4" s="106"/>
-      <c r="BP4" s="108"/>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="107"/>
-      <c r="BS4" s="108"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="107"/>
+      <c r="BN4" s="108"/>
+      <c r="BO4" s="117"/>
+      <c r="BP4" s="118"/>
+      <c r="BQ4" s="117"/>
+      <c r="BR4" s="114"/>
+      <c r="BS4" s="118"/>
     </row>
     <row r="5" spans="1:94" s="28" customFormat="1" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="118"/>
       <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
@@ -4860,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D6" s="88">
         <v>5200</v>
@@ -5085,7 +5054,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D7" s="89">
         <v>5250</v>
@@ -5333,7 +5302,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D8" s="87">
         <v>4800</v>
@@ -5558,7 +5527,7 @@
         <v>77</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D9" s="90">
         <v>2500</v>
@@ -6957,17 +6926,6 @@
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="BB4:BE4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="D1:K3"/>
-    <mergeCell ref="L1:S3"/>
-    <mergeCell ref="T1:AC3"/>
-    <mergeCell ref="AD1:AQ3"/>
-    <mergeCell ref="AR1:AR4"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:C5"/>
     <mergeCell ref="BQ1:BS4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:K4"/>
@@ -6984,6 +6942,17 @@
     <mergeCell ref="BF1:BG4"/>
     <mergeCell ref="BH1:BN3"/>
     <mergeCell ref="BO1:BP4"/>
+    <mergeCell ref="BB4:BE4"/>
+    <mergeCell ref="BH4:BJ4"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="D1:K3"/>
+    <mergeCell ref="L1:S3"/>
+    <mergeCell ref="T1:AC3"/>
+    <mergeCell ref="AD1:AQ3"/>
+    <mergeCell ref="AR1:AR4"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6994,8 +6963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7036,20 +7005,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E2">
         <v>59</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>75</v>
@@ -7059,20 +7028,20 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>89</v>
+      <c r="B3" s="11">
+        <v>2021</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E3">
         <v>25</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>75</v>
@@ -7082,20 +7051,20 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E4">
         <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>76</v>
@@ -7105,20 +7074,20 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>98</v>
+      <c r="B5" s="11">
+        <v>2021</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="E5">
         <v>32</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>76</v>
@@ -7128,43 +7097,43 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>99</v>
+      <c r="B6" s="11">
+        <v>2021</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="E6">
         <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>100</v>
+      <c r="B7" s="11">
+        <v>2021</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>78</v>
@@ -7174,20 +7143,20 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>101</v>
+      <c r="B8" s="11">
+        <v>2021</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>65</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>78</v>
@@ -7197,20 +7166,20 @@
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>102</v>
+      <c r="B9" s="11">
+        <v>2021</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>75</v>
@@ -7220,43 +7189,43 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>103</v>
+      <c r="B10" s="11">
+        <v>2021</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E10">
         <v>39</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>104</v>
+      <c r="B11" s="11">
+        <v>2021</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>38</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>74</v>
@@ -7266,23 +7235,23 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>105</v>
+      <c r="B12" s="11">
+        <v>2021</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="E12">
         <v>36</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8276,7 +8245,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8325,19 +8294,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>5.6</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8348,19 +8317,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F3" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8371,19 +8340,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F4" s="13">
         <v>28</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8394,19 +8363,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8417,19 +8386,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F6" s="15">
         <v>6.1</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8440,19 +8409,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8463,19 +8432,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F8" s="14">
         <v>5.8</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8486,19 +8455,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="F9" s="14">
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
